--- a/CURRENT WORK/RESULT GRAPHS/OUR WORK GRAPHS/DEVIATION CALCULATION FOR PARITY PLOT.xlsx
+++ b/CURRENT WORK/RESULT GRAPHS/OUR WORK GRAPHS/DEVIATION CALCULATION FOR PARITY PLOT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jda365-my.sharepoint.com/personal/dhanush_tamilselvan_jda_com/Documents/Desktop/Final-Year-Project/CURRENT WORK/RESULT GRAPHS/OUR WORK GRAPHS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="286" documentId="11_F25DC773A252ABDACC10488D49DF7BB85BDE58FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15F05C93-C5A2-40D4-8DA8-6032F5C108E0}"/>
+  <xr:revisionPtr revIDLastSave="346" documentId="11_F25DC773A252ABDACC10488D49DF7BB85BDE58FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F55FBCF-D550-493D-8862-5AECC25E562F}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15700" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CaCl2" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="12">
   <si>
     <t>Ref Val</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>No need of calculating</t>
+  </si>
+  <si>
+    <t>Our Val n=1</t>
   </si>
 </sst>
 </file>
@@ -423,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z168"/>
+  <dimension ref="A1:AI168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:V168"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -436,9 +439,11 @@
     <col min="10" max="10" width="10.6328125" customWidth="1"/>
     <col min="18" max="18" width="8.7265625" style="1"/>
     <col min="19" max="19" width="10.6328125" customWidth="1"/>
+    <col min="27" max="27" width="8.7265625" style="1"/>
+    <col min="28" max="28" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -475,8 +480,20 @@
       <c r="Y1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1.0350966110589963</v>
       </c>
@@ -537,8 +554,28 @@
       <c r="Z2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB2">
+        <v>0.19989290998318224</v>
+      </c>
+      <c r="AC2">
+        <v>0.8639</v>
+      </c>
+      <c r="AE2">
+        <f>((AB2-AC2)/AC2)*100</f>
+        <v>-76.861568470519487</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH2">
+        <f>ABS(AE2)</f>
+        <v>76.861568470519487</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1.1340590600984952</v>
       </c>
@@ -604,8 +641,30 @@
         <f>AVERAGE(Y2:Y168)</f>
         <v>6.6160368012737383</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB3">
+        <v>2.1708819670828286E-2</v>
+      </c>
+      <c r="AC3">
+        <v>0.87929999999999997</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" ref="AE3:AE66" si="5">((AB3-AC3)/AC3)*100</f>
+        <v>-97.531124795766146</v>
+      </c>
+      <c r="AF3">
+        <f>AVERAGE(AE2:AE84)</f>
+        <v>-39.531504142730419</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH66" si="6">ABS(AE3)</f>
+        <v>97.531124795766146</v>
+      </c>
+      <c r="AI3">
+        <f>AVERAGE(AH1:AH84)</f>
+        <v>49.320317875845362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1.2213057858259775</v>
       </c>
@@ -647,8 +706,22 @@
         <f t="shared" si="4"/>
         <v>6.9491318819360242</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB4">
+        <v>0.11812679016808642</v>
+      </c>
+      <c r="AC4">
+        <v>1.3160000000000001</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="5"/>
+        <v>-91.023800139203161</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="6"/>
+        <v>91.023800139203161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1.2990713823550895</v>
       </c>
@@ -690,8 +763,22 @@
         <f t="shared" si="4"/>
         <v>1.5153141888214914</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB5">
+        <v>0.29701620887495933</v>
+      </c>
+      <c r="AC5">
+        <v>1.391</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="5"/>
+        <v>-78.647289081598899</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="6"/>
+        <v>78.647289081598899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1.3699849363099206</v>
       </c>
@@ -733,8 +820,22 @@
         <f t="shared" si="4"/>
         <v>3.17471890919844</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB6">
+        <v>0.5566566092916686</v>
+      </c>
+      <c r="AC6">
+        <v>1.4890000000000001</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="5"/>
+        <v>-62.615405688940996</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="6"/>
+        <v>62.615405688940996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1.4367186833580776</v>
       </c>
@@ -776,8 +877,22 @@
         <f t="shared" si="4"/>
         <v>6.8952872093364759</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB7">
+        <v>0.8527252247122642</v>
+      </c>
+      <c r="AC7">
+        <v>1.591</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="5"/>
+        <v>-46.403191407148697</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="6"/>
+        <v>46.403191407148697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1.5181261051848534</v>
       </c>
@@ -819,8 +934,22 @@
         <f t="shared" si="4"/>
         <v>9.6216239998351529</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB8">
+        <v>1.1819478117043767</v>
+      </c>
+      <c r="AC8">
+        <v>1.696</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="5"/>
+        <v>-30.309680913657033</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="6"/>
+        <v>30.309680913657033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1.6015121650413979</v>
       </c>
@@ -862,8 +991,22 @@
         <f t="shared" si="4"/>
         <v>11.478932548626593</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB9">
+        <v>1.5415266206964813</v>
+      </c>
+      <c r="AC9">
+        <v>1.8049999999999999</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="5"/>
+        <v>-14.596863119308514</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="6"/>
+        <v>14.596863119308514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1.6908494523890272</v>
       </c>
@@ -905,8 +1048,22 @@
         <f t="shared" si="4"/>
         <v>12.487696129684297</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB10">
+        <v>1.9290397323408806</v>
+      </c>
+      <c r="AC10">
+        <v>1.915</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="5"/>
+        <v>0.73314529195198519</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="6"/>
+        <v>0.73314529195198519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1.789535295167904</v>
       </c>
@@ -948,8 +1105,22 @@
         <f t="shared" si="4"/>
         <v>12.694795968184927</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB11">
+        <v>2.3423695118661501</v>
+      </c>
+      <c r="AC11">
+        <v>2.0270000000000001</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="5"/>
+        <v>15.558436697886032</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="6"/>
+        <v>15.558436697886032</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.9004211521512226</v>
       </c>
@@ -991,8 +1162,22 @@
         <f t="shared" si="4"/>
         <v>11.311718138529026</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB12">
+        <v>2.7796495777419712</v>
+      </c>
+      <c r="AC12">
+        <v>2.14</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="5"/>
+        <v>29.890167184204252</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="6"/>
+        <v>29.890167184204252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2.0258594277380979</v>
       </c>
@@ -1034,8 +1219,22 @@
         <f t="shared" si="4"/>
         <v>8.8723663662012182</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB13">
+        <v>1.7070898720500039E-2</v>
+      </c>
+      <c r="AC13">
+        <v>0.87649999999999995</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="5"/>
+        <v>-98.052378925213915</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="6"/>
+        <v>98.052378925213915</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2.1677566461581637</v>
       </c>
@@ -1077,8 +1276,22 @@
         <f t="shared" si="4"/>
         <v>6.112812835041435</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB14">
+        <v>9.7485789166111933E-2</v>
+      </c>
+      <c r="AC14">
+        <v>1.3080000000000001</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="5"/>
+        <v>-92.546958014823261</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="6"/>
+        <v>92.546958014823261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.0263648096613283</v>
       </c>
@@ -1120,8 +1333,22 @@
         <f t="shared" si="4"/>
         <v>3.4104486552668885</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB15">
+        <v>0.27490737081387595</v>
+      </c>
+      <c r="AC15">
+        <v>1.381</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="5"/>
+        <v>-80.093600954824325</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="6"/>
+        <v>80.093600954824325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.1238989276417588</v>
       </c>
@@ -1163,8 +1390,22 @@
         <f t="shared" si="4"/>
         <v>0.48792246048553278</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB16">
+        <v>0.5328763050889288</v>
+      </c>
+      <c r="AC16">
+        <v>1.4770000000000001</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="5"/>
+        <v>-63.921712587073209</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="6"/>
+        <v>63.921712587073209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.2095168701251857</v>
       </c>
@@ -1206,8 +1447,22 @@
         <f t="shared" si="4"/>
         <v>1.6181009071963677</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB17">
+        <v>0.82743794630890377</v>
+      </c>
+      <c r="AC17">
+        <v>1.575</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="5"/>
+        <v>-47.464257377212462</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="6"/>
+        <v>47.464257377212462</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.2854074400252102</v>
       </c>
@@ -1249,8 +1504,22 @@
         <f t="shared" si="4"/>
         <v>2.7242467798748415</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB18">
+        <v>1.1553018258105678</v>
+      </c>
+      <c r="AC18">
+        <v>1.677</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="5"/>
+        <v>-31.109014561087189</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="6"/>
+        <v>31.109014561087189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1.3541772219508421</v>
       </c>
@@ -1292,8 +1561,22 @@
         <f t="shared" si="4"/>
         <v>2.8700068124881608</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB19">
+        <v>1.5136557872713154</v>
+      </c>
+      <c r="AC19">
+        <v>1.7809999999999999</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="5"/>
+        <v>-15.010904701217544</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="6"/>
+        <v>15.010904701217544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1.4184926748243587</v>
       </c>
@@ -1335,8 +1618,22 @@
         <f t="shared" si="4"/>
         <v>1.9379416645329135</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB20">
+        <v>1.9000650909752934</v>
+      </c>
+      <c r="AC20">
+        <v>1.887</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="5"/>
+        <v>0.69237366058788574</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="6"/>
+        <v>0.69237366058788574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1.496501133179345</v>
       </c>
@@ -1378,8 +1675,22 @@
         <f t="shared" si="4"/>
         <v>6.9025950956987145E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB21">
+        <v>2.3124006693848327</v>
+      </c>
+      <c r="AC21">
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="5"/>
+        <v>16.026124906414076</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="6"/>
+        <v>16.026124906414076</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1.5760978946251878</v>
       </c>
@@ -1421,8 +1732,22 @@
         <f t="shared" si="4"/>
         <v>2.6867597906268101</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB22">
+        <v>2.7487859250318487</v>
+      </c>
+      <c r="AC22">
+        <v>2.1</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="5"/>
+        <v>30.894567858659457</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="6"/>
+        <v>30.894567858659457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1.6612958283646246</v>
       </c>
@@ -1464,8 +1789,22 @@
         <f t="shared" si="4"/>
         <v>11.914989212215934</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB23">
+        <v>0.19503369309204918</v>
+      </c>
+      <c r="AC23">
+        <v>0.85970000000000002</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="5"/>
+        <v>-77.313749785733492</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="6"/>
+        <v>77.313749785733492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1.7555384945251178</v>
       </c>
@@ -1507,8 +1846,22 @@
         <f t="shared" si="4"/>
         <v>6.5634697008407104</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB24">
+        <v>1.4575723449601452E-2</v>
+      </c>
+      <c r="AC24">
+        <v>0.87490000000000001</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="5"/>
+        <v>-98.334012635775352</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="6"/>
+        <v>98.334012635775352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1.8617256860365927</v>
       </c>
@@ -1550,8 +1903,22 @@
         <f t="shared" si="4"/>
         <v>1.1539165299568235</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB25">
+        <v>8.6381047231455052E-2</v>
+      </c>
+      <c r="AC25">
+        <v>1.3029999999999999</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="5"/>
+        <v>-93.37060266834574</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="6"/>
+        <v>93.37060266834574</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1.9822576919138877</v>
       </c>
@@ -1593,8 +1960,22 @@
         <f t="shared" si="4"/>
         <v>3.4803596330299933</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB26">
+        <v>0.26301294083345461</v>
+      </c>
+      <c r="AC26">
+        <v>1.375</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="5"/>
+        <v>-80.8717861212033</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="6"/>
+        <v>80.8717861212033</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2.119086837833239</v>
       </c>
@@ -1636,8 +2017,22 @@
         <f t="shared" si="4"/>
         <v>7.1274651592458982</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB27">
+        <v>0.52008263576669977</v>
+      </c>
+      <c r="AC27">
+        <v>1.4690000000000001</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="5"/>
+        <v>-64.59614460403678</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="6"/>
+        <v>64.59614460403678</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1.0221094723238922</v>
       </c>
@@ -1679,8 +2074,22 @@
         <f t="shared" si="4"/>
         <v>9.7771929267909616</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB28">
+        <v>0.8138335333798481</v>
+      </c>
+      <c r="AC28">
+        <v>1.5660000000000001</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="5"/>
+        <v>-48.031064279703187</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="6"/>
+        <v>48.031064279703187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1.1189475184945692</v>
       </c>
@@ -1722,8 +2131,22 @@
         <f t="shared" si="4"/>
         <v>11.525057066398393</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB29">
+        <v>1.1409664359272467</v>
+      </c>
+      <c r="AC29">
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="5"/>
+        <v>-31.514619692242096</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="6"/>
+        <v>31.514619692242096</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1.2037717177696641</v>
       </c>
@@ -1765,8 +2188,22 @@
         <f t="shared" si="4"/>
         <v>12.534959292258177</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB30">
+        <v>1.4986614363354835</v>
+      </c>
+      <c r="AC30">
+        <v>1.768</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="5"/>
+        <v>-15.234081655232831</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="6"/>
+        <v>15.234081655232831</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1.2787485590103149</v>
       </c>
@@ -1808,8 +2245,22 @@
         <f t="shared" si="4"/>
         <v>12.510433756501612</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB31">
+        <v>1.8844768976031268</v>
+      </c>
+      <c r="AC31">
+        <v>1.871</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="5"/>
+        <v>0.72030452181329552</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="6"/>
+        <v>0.72030452181329552</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1.3464736613473498</v>
       </c>
@@ -1851,8 +2302,22 @@
         <f t="shared" si="4"/>
         <v>10.984789916863296</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB32">
+        <v>2.2962776014287627</v>
+      </c>
+      <c r="AC32">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="5"/>
+        <v>16.267220325506969</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="6"/>
+        <v>16.267220325506969</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1.409610668283491</v>
       </c>
@@ -1894,8 +2359,22 @@
         <f t="shared" si="4"/>
         <v>8.3942558909115927</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB33">
+        <v>2.7321814542276428</v>
+      </c>
+      <c r="AC33">
+        <v>2.0790000000000002</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="5"/>
+        <v>31.418059366408972</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="6"/>
+        <v>31.418059366408972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1.4859628086227148</v>
       </c>
@@ -1937,8 +2416,22 @@
         <f t="shared" si="4"/>
         <v>5.564156280313548</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB34">
+        <v>0.19326211262865542</v>
+      </c>
+      <c r="AC34">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="5"/>
+        <v>-77.475278248408458</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="6"/>
+        <v>77.475278248408458</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1.6468938972651115</v>
       </c>
@@ -1980,8 +2473,22 @@
         <f t="shared" si="4"/>
         <v>2.784928581613797</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB35">
+        <v>1.19751287051866E-2</v>
+      </c>
+      <c r="AC35">
+        <v>0.873</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="5"/>
+        <v>-98.628278498833154</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="6"/>
+        <v>98.628278498833154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1.7389714297673384</v>
       </c>
@@ -2023,8 +2530,22 @@
         <f t="shared" si="4"/>
         <v>0.26619143939851325</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB36">
+        <v>7.4807137434356213E-2</v>
+      </c>
+      <c r="AC36">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="5"/>
+        <v>-94.232294723642539</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="6"/>
+        <v>94.232294723642539</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1.8428689953612785</v>
       </c>
@@ -2066,8 +2587,22 @@
         <f t="shared" si="4"/>
         <v>2.3605646330376469</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB37">
+        <v>0.25061597920291578</v>
+      </c>
+      <c r="AC37">
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="5"/>
+        <v>-81.680118479319034</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="6"/>
+        <v>81.680118479319034</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1.9610102161499257</v>
       </c>
@@ -2109,8 +2644,22 @@
         <f t="shared" si="4"/>
         <v>3.5089466472433837</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB38">
+        <v>0.50674844253823226</v>
+      </c>
+      <c r="AC38">
+        <v>1.46</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="5"/>
+        <v>-65.291202565874499</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="6"/>
+        <v>65.291202565874499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2.0953697358508148</v>
       </c>
@@ -2152,8 +2701,22 @@
         <f t="shared" si="4"/>
         <v>3.5700009805511113</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB39">
+        <v>0.79965434317358208</v>
+      </c>
+      <c r="AC39">
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="5"/>
+        <v>-48.575283397197296</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="6"/>
+        <v>48.575283397197296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1.01792458507727</v>
       </c>
@@ -2195,8 +2758,22 @@
         <f t="shared" si="4"/>
         <v>2.592784803364903</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB40">
+        <v>1.1260253854830464</v>
+      </c>
+      <c r="AC40">
+        <v>1.653</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="5"/>
+        <v>-31.879891985296648</v>
+      </c>
+      <c r="AH40">
+        <f t="shared" si="6"/>
+        <v>31.879891985296648</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1.1140780883787778</v>
       </c>
@@ -2238,8 +2815,22 @@
         <f t="shared" si="4"/>
         <v>0.5583470663895248</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB41">
+        <v>1.483033584178401</v>
+      </c>
+      <c r="AC41">
+        <v>1.7529999999999999</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="5"/>
+        <v>-15.400251900832792</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="6"/>
+        <v>15.400251900832792</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1.198121700733586</v>
       </c>
@@ -2281,8 +2872,22 @@
         <f t="shared" si="4"/>
         <v>2.380507346454928</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB42">
+        <v>1.868230113567021</v>
+      </c>
+      <c r="AC42">
+        <v>1.8540000000000001</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="5"/>
+        <v>0.76753579110144898</v>
+      </c>
+      <c r="AH42">
+        <f t="shared" si="6"/>
+        <v>0.76753579110144898</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1.2721999674571154</v>
       </c>
@@ -2324,8 +2929,22 @@
         <f t="shared" si="4"/>
         <v>14.113822597889081</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB43">
+        <v>2.2794733447181228</v>
+      </c>
+      <c r="AC43">
+        <v>1.956</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="5"/>
+        <v>16.537492061253726</v>
+      </c>
+      <c r="AH43">
+        <f t="shared" si="6"/>
+        <v>16.537492061253726</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1.3388977241214826</v>
       </c>
@@ -2367,8 +2986,22 @@
         <f t="shared" si="4"/>
         <v>11.701343703979854</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB44">
+        <v>2.7148754557229422</v>
+      </c>
+      <c r="AC44">
+        <v>2.0579999999999998</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="5"/>
+        <v>31.918146536586121</v>
+      </c>
+      <c r="AH44">
+        <f t="shared" si="6"/>
+        <v>31.918146536586121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1.4008758453005443</v>
       </c>
@@ -2410,8 +3043,22 @@
         <f t="shared" si="4"/>
         <v>6.3341021444683028</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB45">
+        <v>0.18952537146835122</v>
+      </c>
+      <c r="AC45">
+        <v>0.85419999999999996</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="5"/>
+        <v>-77.81252968059573</v>
+      </c>
+      <c r="AH45">
+        <f t="shared" si="6"/>
+        <v>77.81252968059573</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1.4755991675343174</v>
       </c>
@@ -2453,8 +3100,22 @@
         <f t="shared" si="4"/>
         <v>0.9295273160017844</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB46">
+        <v>6.4897727625634616E-3</v>
+      </c>
+      <c r="AC46">
+        <v>0.86870000000000003</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="5"/>
+        <v>-99.252932800441641</v>
+      </c>
+      <c r="AH46">
+        <f t="shared" si="6"/>
+        <v>99.252932800441641</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1.5515335594203188</v>
       </c>
@@ -2496,8 +3157,22 @@
         <f t="shared" si="4"/>
         <v>3.700519198449455</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB47">
+        <v>5.0394639092850968E-2</v>
+      </c>
+      <c r="AC47">
+        <v>1.282</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="5"/>
+        <v>-96.069060913194164</v>
+      </c>
+      <c r="AH47">
+        <f t="shared" si="6"/>
+        <v>96.069060913194164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1.6327308177589737</v>
       </c>
@@ -2539,8 +3214,22 @@
         <f t="shared" si="4"/>
         <v>7.3233789510176077</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB48">
+        <v>0.22446744248965708</v>
+      </c>
+      <c r="AC48">
+        <v>1.351</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" si="5"/>
+        <v>-83.385089379003915</v>
+      </c>
+      <c r="AH48">
+        <f t="shared" si="6"/>
+        <v>83.385089379003915</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1.7226791833740838</v>
       </c>
@@ -2582,8 +3271,22 @@
         <f t="shared" si="4"/>
         <v>9.9522159346559569</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB49">
+        <v>0.47862303152481223</v>
+      </c>
+      <c r="AC49">
+        <v>1.4410000000000001</v>
+      </c>
+      <c r="AE49">
+        <f t="shared" si="5"/>
+        <v>-66.785355202997081</v>
+      </c>
+      <c r="AH49">
+        <f t="shared" si="6"/>
+        <v>66.785355202997081</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1.8243251615762672</v>
       </c>
@@ -2625,8 +3328,22 @@
         <f t="shared" si="4"/>
         <v>11.606716762181701</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB50">
+        <v>0.7697466055583424</v>
+      </c>
+      <c r="AC50">
+        <v>1.532</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" si="5"/>
+        <v>-49.75544350141368</v>
+      </c>
+      <c r="AH50">
+        <f t="shared" si="6"/>
+        <v>49.75544350141368</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1.9401153194516223</v>
       </c>
@@ -2668,8 +3385,22 @@
         <f t="shared" si="4"/>
         <v>12.563607008871672</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB51">
+        <v>1.0945106790800998</v>
+      </c>
+      <c r="AC51">
+        <v>1.627</v>
+      </c>
+      <c r="AE51">
+        <f t="shared" si="5"/>
+        <v>-32.72829261953904</v>
+      </c>
+      <c r="AH51">
+        <f t="shared" si="6"/>
+        <v>32.72829261953904</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2.072046247558391</v>
       </c>
@@ -2711,8 +3442,22 @@
         <f t="shared" si="4"/>
         <v>12.629144924163718</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB52">
+        <v>1.4500702276675805</v>
+      </c>
+      <c r="AC52">
+        <v>1.722</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="5"/>
+        <v>-15.791508265529586</v>
+      </c>
+      <c r="AH52">
+        <f t="shared" si="6"/>
+        <v>15.791508265529586</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1.0097570923160808</v>
       </c>
@@ -2754,8 +3499,22 @@
         <f t="shared" si="4"/>
         <v>10.877993130465198</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB53">
+        <v>1.8339612627387913</v>
+      </c>
+      <c r="AC53">
+        <v>1.819</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" si="5"/>
+        <v>0.82249932593685504</v>
+      </c>
+      <c r="AH53">
+        <f t="shared" si="6"/>
+        <v>0.82249932593685504</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1.104574612033087</v>
       </c>
@@ -2797,8 +3556,22 @@
         <f t="shared" si="4"/>
         <v>8.3417364018872071</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB54">
+        <v>2.2440286336160655</v>
+      </c>
+      <c r="AC54">
+        <v>1.9159999999999999</v>
+      </c>
+      <c r="AE54">
+        <f t="shared" si="5"/>
+        <v>17.120492359919918</v>
+      </c>
+      <c r="AH54">
+        <f t="shared" si="6"/>
+        <v>17.120492359919918</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1.1870948239627512</v>
       </c>
@@ -2840,8 +3613,22 @@
         <f t="shared" si="4"/>
         <v>5.3834015202899597</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB55">
+        <v>2.6783724358100169</v>
+      </c>
+      <c r="AC55">
+        <v>2.0129999999999999</v>
+      </c>
+      <c r="AE55">
+        <f t="shared" si="5"/>
+        <v>33.053772270741035</v>
+      </c>
+      <c r="AH55">
+        <f t="shared" si="6"/>
+        <v>33.053772270741035</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1.259419450020234</v>
       </c>
@@ -2883,8 +3670,22 @@
         <f t="shared" si="4"/>
         <v>2.5608412824987359</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB56">
+        <v>0.18556295294743563</v>
+      </c>
+      <c r="AC56">
+        <v>0.8498</v>
+      </c>
+      <c r="AE56">
+        <f t="shared" si="5"/>
+        <v>-78.163926459468627</v>
+      </c>
+      <c r="AH56">
+        <f t="shared" si="6"/>
+        <v>78.163926459468627</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1.3241122809532733</v>
       </c>
@@ -2926,8 +3727,22 @@
         <f t="shared" si="4"/>
         <v>0.49250932331161446</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB57">
+        <v>6.731333303904379E-4</v>
+      </c>
+      <c r="AC57">
+        <v>0.86370000000000002</v>
+      </c>
+      <c r="AE57">
+        <f t="shared" si="5"/>
+        <v>-99.922063988608272</v>
+      </c>
+      <c r="AH57">
+        <f t="shared" si="6"/>
+        <v>99.922063988608272</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1.3838287869810353</v>
       </c>
@@ -2969,8 +3784,22 @@
         <f t="shared" si="4"/>
         <v>2.6530869052002761</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB58">
+        <v>2.4507768308811687E-2</v>
+      </c>
+      <c r="AC58">
+        <v>1.266</v>
+      </c>
+      <c r="AE58">
+        <f t="shared" si="5"/>
+        <v>-98.064157321578847</v>
+      </c>
+      <c r="AH58">
+        <f t="shared" si="6"/>
+        <v>98.064157321578847</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1.4553734229692263</v>
       </c>
@@ -3012,8 +3841,22 @@
         <f t="shared" si="4"/>
         <v>3.7973239806120143</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB59">
+        <v>0.19673968674674647</v>
+      </c>
+      <c r="AC59">
+        <v>1.333</v>
+      </c>
+      <c r="AE59">
+        <f t="shared" si="5"/>
+        <v>-85.240833702419621</v>
+      </c>
+      <c r="AH59">
+        <f t="shared" si="6"/>
+        <v>85.240833702419621</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1.5277641456606741</v>
       </c>
@@ -3055,8 +3898,22 @@
         <f t="shared" si="4"/>
         <v>3.8470375260571963</v>
       </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB60">
+        <v>0.44879900980986015</v>
+      </c>
+      <c r="AC60">
+        <v>1.419</v>
+      </c>
+      <c r="AE60">
+        <f t="shared" si="5"/>
+        <v>-68.372162804097229</v>
+      </c>
+      <c r="AH60">
+        <f t="shared" si="6"/>
+        <v>68.372162804097229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1.605090415148855</v>
       </c>
@@ -3098,8 +3955,22 @@
         <f t="shared" si="4"/>
         <v>2.7967127833594674</v>
       </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB61">
+        <v>0.73803261511544671</v>
+      </c>
+      <c r="AC61">
+        <v>1.5069999999999999</v>
+      </c>
+      <c r="AE61">
+        <f t="shared" si="5"/>
+        <v>-51.02636926904799</v>
+      </c>
+      <c r="AH61">
+        <f t="shared" si="6"/>
+        <v>51.02636926904799</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1.6908837022227112</v>
       </c>
@@ -3141,8 +4012,22 @@
         <f t="shared" si="4"/>
         <v>0.73093290869332717</v>
       </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB62">
+        <v>1.0610926683121311</v>
+      </c>
+      <c r="AC62">
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="AE62">
+        <f t="shared" si="5"/>
+        <v>-33.598706613759006</v>
+      </c>
+      <c r="AH62">
+        <f t="shared" si="6"/>
+        <v>33.598706613759006</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1.7881357081056204</v>
       </c>
@@ -3184,8 +4069,22 @@
         <f t="shared" si="4"/>
         <v>2.3012018336856945</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB63">
+        <v>1.4151160767786914</v>
+      </c>
+      <c r="AC63">
+        <v>1.69</v>
+      </c>
+      <c r="AE63">
+        <f t="shared" si="5"/>
+        <v>-16.265320900669142</v>
+      </c>
+      <c r="AH63">
+        <f t="shared" si="6"/>
+        <v>16.265320900669142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1.8993377757208127</v>
       </c>
@@ -3227,8 +4126,22 @@
         <f t="shared" si="4"/>
         <v>13.893394819116232</v>
       </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB64">
+        <v>1.7976227732938022</v>
+      </c>
+      <c r="AC64">
+        <v>1.782</v>
+      </c>
+      <c r="AE64">
+        <f t="shared" si="5"/>
+        <v>0.87669883803603399</v>
+      </c>
+      <c r="AH64">
+        <f t="shared" si="6"/>
+        <v>0.87669883803603399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>2.0265293237045827</v>
       </c>
@@ -3270,8 +4183,22 @@
         <f t="shared" si="4"/>
         <v>11.45737446887817</v>
       </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB65">
+        <v>2.2064432687983895</v>
+      </c>
+      <c r="AC65">
+        <v>1.875</v>
+      </c>
+      <c r="AE65">
+        <f t="shared" si="5"/>
+        <v>17.676974335914107</v>
+      </c>
+      <c r="AH65">
+        <f t="shared" si="6"/>
+        <v>17.676974335914107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.95007927089789346</v>
       </c>
@@ -3313,8 +4240,22 @@
         <f t="shared" si="4"/>
         <v>6.0834322842217459</v>
       </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB66">
+        <v>2.6396648465049593</v>
+      </c>
+      <c r="AC66">
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="AE66">
+        <f t="shared" si="5"/>
+        <v>34.197501093287194</v>
+      </c>
+      <c r="AH66">
+        <f t="shared" si="6"/>
+        <v>34.197501093287194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>1.0018452562711884</v>
       </c>
@@ -3322,11 +4263,11 @@
         <v>1.024</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D105" si="5">((A67-B67)/B67)*100</f>
+        <f t="shared" ref="D67:D105" si="7">((A67-B67)/B67)*100</f>
         <v>-2.1635491922667631</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G105" si="6">ABS(D67)</f>
+        <f t="shared" ref="G67:G105" si="8">ABS(D67)</f>
         <v>2.1635491922667631</v>
       </c>
       <c r="J67">
@@ -3336,7 +4277,7 @@
         <v>1.024</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M105" si="7">((J67-K67)/K67)*100</f>
+        <f t="shared" ref="M67:M105" si="9">((J67-K67)/K67)*100</f>
         <v>1.7683653303410825</v>
       </c>
       <c r="P67">
@@ -3349,15 +4290,29 @@
         <v>0.91259999999999997</v>
       </c>
       <c r="V67">
-        <f t="shared" ref="V67:V130" si="8">((S67-T67)/T67)*100</f>
+        <f t="shared" ref="V67:V130" si="10">((S67-T67)/T67)*100</f>
         <v>-0.67188069817208118</v>
       </c>
       <c r="Y67">
-        <f t="shared" ref="Y67:Y130" si="9">ABS(V67)</f>
+        <f t="shared" ref="Y67:Y130" si="11">ABS(V67)</f>
         <v>0.67188069817208118</v>
       </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB67">
+        <v>0.18140889961383916</v>
+      </c>
+      <c r="AC67">
+        <v>0.8448</v>
+      </c>
+      <c r="AE67">
+        <f t="shared" ref="AE67:AE84" si="12">((AB67-AC67)/AC67)*100</f>
+        <v>-78.526408663134561</v>
+      </c>
+      <c r="AH67">
+        <f t="shared" ref="AH67:AH130" si="13">ABS(AE67)</f>
+        <v>78.526408663134561</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>1.0953686280970207</v>
       </c>
@@ -3365,11 +4320,11 @@
         <v>1.08</v>
       </c>
       <c r="D68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4230211200945058</v>
       </c>
       <c r="G68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4230211200945058</v>
       </c>
       <c r="J68">
@@ -3379,7 +4334,7 @@
         <v>1.08</v>
       </c>
       <c r="M68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.3590727192479639</v>
       </c>
       <c r="P68">
@@ -3392,15 +4347,29 @@
         <v>0.93540000000000001</v>
       </c>
       <c r="V68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.955189376570921</v>
       </c>
       <c r="Y68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.955189376570921</v>
       </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB68">
+        <v>0.16767093099340652</v>
+      </c>
+      <c r="AC68">
+        <v>1.3129999999999999</v>
+      </c>
+      <c r="AE68">
+        <f t="shared" si="12"/>
+        <v>-87.229936710326996</v>
+      </c>
+      <c r="AH68">
+        <f t="shared" si="13"/>
+        <v>87.229936710326996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1.1764131771753226</v>
       </c>
@@ -3408,11 +4377,11 @@
         <v>1.139</v>
       </c>
       <c r="D69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.2847389969554484</v>
       </c>
       <c r="G69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.2847389969554484</v>
       </c>
       <c r="J69">
@@ -3422,7 +4391,7 @@
         <v>1.139</v>
       </c>
       <c r="M69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.70171004467055353</v>
       </c>
       <c r="P69">
@@ -3435,15 +4404,29 @@
         <v>0.95979999999999999</v>
       </c>
       <c r="V69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.5658166483879405</v>
       </c>
       <c r="Y69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7.5658166483879405</v>
       </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB69">
+        <v>0.4175326061798123</v>
+      </c>
+      <c r="AC69">
+        <v>1.3959999999999999</v>
+      </c>
+      <c r="AE69">
+        <f t="shared" si="12"/>
+        <v>-70.090787522936068</v>
+      </c>
+      <c r="AH69">
+        <f t="shared" si="13"/>
+        <v>70.090787522936068</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1.2470391461771526</v>
       </c>
@@ -3451,11 +4434,11 @@
         <v>1.2010000000000001</v>
       </c>
       <c r="D70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.8334010139177801</v>
       </c>
       <c r="G70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.8334010139177801</v>
       </c>
       <c r="J70">
@@ -3465,7 +4448,7 @@
         <v>1.2010000000000001</v>
       </c>
       <c r="M70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.4159007085255167E-2</v>
       </c>
       <c r="P70">
@@ -3478,15 +4461,29 @@
         <v>0.98560000000000003</v>
       </c>
       <c r="V70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10.163139185004535</v>
       </c>
       <c r="Y70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10.163139185004535</v>
       </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB70">
+        <v>0.70478483802541669</v>
+      </c>
+      <c r="AC70">
+        <v>1.4810000000000001</v>
+      </c>
+      <c r="AE70">
+        <f t="shared" si="12"/>
+        <v>-52.411557189370917</v>
+      </c>
+      <c r="AH70">
+        <f t="shared" si="13"/>
+        <v>52.411557189370917</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1.3097899410618572</v>
       </c>
@@ -3494,11 +4491,11 @@
         <v>1.266</v>
       </c>
       <c r="D71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.4589210949334266</v>
       </c>
       <c r="G71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.4589210949334266</v>
       </c>
       <c r="J71">
@@ -3508,7 +4505,7 @@
         <v>1.266</v>
       </c>
       <c r="M71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.3593995843078876</v>
       </c>
       <c r="P71">
@@ -3521,15 +4518,29 @@
         <v>1.0129999999999999</v>
       </c>
       <c r="V71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>11.801253880271306</v>
       </c>
       <c r="Y71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>11.801253880271306</v>
       </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB71">
+        <v>1.0260584592047253</v>
+      </c>
+      <c r="AC71">
+        <v>1.5680000000000001</v>
+      </c>
+      <c r="AE71">
+        <f t="shared" si="12"/>
+        <v>-34.562598265004766</v>
+      </c>
+      <c r="AH71">
+        <f t="shared" si="13"/>
+        <v>34.562598265004766</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>1.3673157964466032</v>
       </c>
@@ -3537,11 +4548,11 @@
         <v>1.333</v>
       </c>
       <c r="D72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.5743283155741343</v>
       </c>
       <c r="G72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.5743283155741343</v>
       </c>
       <c r="J72">
@@ -3551,7 +4562,7 @@
         <v>1.333</v>
       </c>
       <c r="M72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.5877967403886899</v>
       </c>
       <c r="P72">
@@ -3564,15 +4575,29 @@
         <v>1.0409999999999999</v>
       </c>
       <c r="V72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12.703640587425138</v>
       </c>
       <c r="Y72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12.703640587425138</v>
       </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB72">
+        <v>1.3784714350639335</v>
+      </c>
+      <c r="AC72">
+        <v>1.655</v>
+      </c>
+      <c r="AE72">
+        <f t="shared" si="12"/>
+        <v>-16.708674618493443</v>
+      </c>
+      <c r="AH72">
+        <f t="shared" si="13"/>
+        <v>16.708674618493443</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>1.4357815133644405</v>
       </c>
@@ -3580,11 +4605,11 @@
         <v>1.419</v>
       </c>
       <c r="D73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1826295535194113</v>
       </c>
       <c r="G73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1826295535194113</v>
       </c>
       <c r="J73">
@@ -3594,7 +4619,7 @@
         <v>1.419</v>
       </c>
       <c r="M73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.6171897122926534</v>
       </c>
       <c r="P73">
@@ -3607,15 +4632,29 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="V73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12.651046087464277</v>
       </c>
       <c r="Y73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12.651046087464277</v>
       </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB73">
+        <v>1.7595268421295793</v>
+      </c>
+      <c r="AC73">
+        <v>1.744</v>
+      </c>
+      <c r="AE73">
+        <f t="shared" si="12"/>
+        <v>0.89030058082450303</v>
+      </c>
+      <c r="AH73">
+        <f t="shared" si="13"/>
+        <v>0.89030058082450303</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>1.5047398138303698</v>
       </c>
@@ -3623,11 +4662,11 @@
         <v>1.5069999999999999</v>
       </c>
       <c r="D74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.14997917515793532</v>
       </c>
       <c r="G74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.14997917515793532</v>
       </c>
       <c r="J74">
@@ -3637,7 +4676,7 @@
         <v>1.5069999999999999</v>
       </c>
       <c r="M74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.47621226396767496</v>
       </c>
       <c r="P74">
@@ -3650,15 +4689,29 @@
         <v>1.1619999999999999</v>
       </c>
       <c r="V74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10.967850337759275</v>
       </c>
       <c r="Y74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10.967850337759275</v>
       </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB74">
+        <v>2.1670401595127058</v>
+      </c>
+      <c r="AC74">
+        <v>1.8320000000000001</v>
+      </c>
+      <c r="AE74">
+        <f t="shared" si="12"/>
+        <v>18.288218314012319</v>
+      </c>
+      <c r="AH74">
+        <f t="shared" si="13"/>
+        <v>18.288218314012319</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>1.5783166364744952</v>
       </c>
@@ -3666,11 +4719,11 @@
         <v>1.5980000000000001</v>
       </c>
       <c r="D75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.2317499077287188</v>
       </c>
       <c r="G75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2317499077287188</v>
       </c>
       <c r="J75">
@@ -3680,7 +4733,7 @@
         <v>1.5980000000000001</v>
       </c>
       <c r="M75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.3696426737845499</v>
       </c>
       <c r="P75">
@@ -3693,15 +4746,29 @@
         <v>1.228</v>
       </c>
       <c r="V75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.2970064641945598</v>
       </c>
       <c r="Y75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8.2970064641945598</v>
       </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB75">
+        <v>2.599085238485408</v>
+      </c>
+      <c r="AC75">
+        <v>1.919</v>
+      </c>
+      <c r="AE75">
+        <f t="shared" si="12"/>
+        <v>35.439564277509533</v>
+      </c>
+      <c r="AH75">
+        <f t="shared" si="13"/>
+        <v>35.439564277509533</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1.66008532257173</v>
       </c>
@@ -3709,11 +4776,11 @@
         <v>1.69</v>
       </c>
       <c r="D76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.7700992561106461</v>
       </c>
       <c r="G76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.7700992561106461</v>
       </c>
       <c r="J76">
@@ -3723,7 +4790,7 @@
         <v>1.69</v>
       </c>
       <c r="M76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.27149312105833107</v>
       </c>
       <c r="P76">
@@ -3736,15 +4803,29 @@
         <v>1.2969999999999999</v>
       </c>
       <c r="V76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.2921537879550717</v>
       </c>
       <c r="Y76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.2921537879550717</v>
       </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB76">
+        <v>0.17709248572842284</v>
+      </c>
+      <c r="AC76">
+        <v>0.83930000000000005</v>
+      </c>
+      <c r="AE76">
+        <f t="shared" si="12"/>
+        <v>-78.899977871032661</v>
+      </c>
+      <c r="AH76">
+        <f t="shared" si="13"/>
+        <v>78.899977871032661</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>1.7530813481634713</v>
       </c>
@@ -3752,11 +4833,11 @@
         <v>1.782</v>
       </c>
       <c r="D77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.6228199683798401</v>
       </c>
       <c r="G77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6228199683798401</v>
       </c>
       <c r="J77">
@@ -3766,7 +4847,7 @@
         <v>1.782</v>
       </c>
       <c r="M77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.19590197650061295</v>
       </c>
       <c r="P77">
@@ -3779,15 +4860,29 @@
         <v>1.3680000000000001</v>
       </c>
       <c r="V77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.4208394739665962</v>
       </c>
       <c r="Y77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.4208394739665962</v>
       </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB77">
+        <v>0.13746602727904381</v>
+      </c>
+      <c r="AC77">
+        <v>1.292</v>
+      </c>
+      <c r="AE77">
+        <f t="shared" si="12"/>
+        <v>-89.360214606885151</v>
+      </c>
+      <c r="AH77">
+        <f t="shared" si="13"/>
+        <v>89.360214606885151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1.8598394242452303</v>
       </c>
@@ -3795,11 +4890,11 @@
         <v>1.875</v>
       </c>
       <c r="D78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.808564040254384</v>
       </c>
       <c r="G78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.808564040254384</v>
       </c>
       <c r="J78">
@@ -3809,7 +4904,7 @@
         <v>1.875</v>
       </c>
       <c r="M78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.23701667964561562</v>
       </c>
       <c r="P78">
@@ -3822,15 +4917,29 @@
         <v>1.46</v>
       </c>
       <c r="V78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.64043055271614469</v>
       </c>
       <c r="Y78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.64043055271614469</v>
       </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB78">
+        <v>0.38504415985093288</v>
+      </c>
+      <c r="AC78">
+        <v>1.3720000000000001</v>
+      </c>
+      <c r="AE78">
+        <f t="shared" si="12"/>
+        <v>-71.935556862176909</v>
+      </c>
+      <c r="AH78">
+        <f t="shared" si="13"/>
+        <v>71.935556862176909</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>1.9824404510775586</v>
       </c>
@@ -3838,11 +4947,11 @@
         <v>1.9670000000000001</v>
       </c>
       <c r="D79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.78497463536138978</v>
       </c>
       <c r="G79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.78497463536138978</v>
       </c>
       <c r="J79">
@@ -3852,7 +4961,7 @@
         <v>1.9670000000000001</v>
       </c>
       <c r="M79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.29658689281175088</v>
       </c>
       <c r="P79">
@@ -3865,15 +4974,29 @@
         <v>1.5549999999999999</v>
       </c>
       <c r="V79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-2.8098683306639369</v>
       </c>
       <c r="Y79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.8098683306639369</v>
       </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB79">
+        <v>0.67023757655186744</v>
+      </c>
+      <c r="AC79">
+        <v>1.454</v>
+      </c>
+      <c r="AE79">
+        <f t="shared" si="12"/>
+        <v>-53.903880567271834</v>
+      </c>
+      <c r="AH79">
+        <f t="shared" si="13"/>
+        <v>53.903880567271834</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.99417355680349861</v>
       </c>
@@ -3881,11 +5004,11 @@
         <v>1.0129999999999999</v>
       </c>
       <c r="D80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.8584840272952898</v>
       </c>
       <c r="G80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.8584840272952898</v>
       </c>
       <c r="J80">
@@ -3895,7 +5018,7 @@
         <v>1.0129999999999999</v>
       </c>
       <c r="M80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.1090651212056986</v>
       </c>
       <c r="P80">
@@ -3908,15 +5031,29 @@
         <v>1.653</v>
       </c>
       <c r="V80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-3.9579776237049913</v>
       </c>
       <c r="Y80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.9579776237049913</v>
       </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB80">
+        <v>0.98965494328618497</v>
+      </c>
+      <c r="AC80">
+        <v>1.5369999999999999</v>
+      </c>
+      <c r="AE80">
+        <f t="shared" si="12"/>
+        <v>-35.611259382811646</v>
+      </c>
+      <c r="AH80">
+        <f t="shared" si="13"/>
+        <v>35.611259382811646</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1.0864420756997986</v>
       </c>
@@ -3924,11 +5061,11 @@
         <v>1.0680000000000001</v>
       </c>
       <c r="D81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7267861142133425</v>
       </c>
       <c r="G81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.7267861142133425</v>
       </c>
       <c r="J81">
@@ -3938,7 +5075,7 @@
         <v>1.0680000000000001</v>
       </c>
       <c r="M81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.646944190449346</v>
       </c>
       <c r="P81">
@@ -3951,15 +5088,29 @@
         <v>1.7529999999999999</v>
       </c>
       <c r="V81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-4.0022577771913559</v>
       </c>
       <c r="Y81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.0022577771913559</v>
       </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB81">
+        <v>1.3403945430209878</v>
+      </c>
+      <c r="AC81">
+        <v>1.62</v>
+      </c>
+      <c r="AE81">
+        <f t="shared" si="12"/>
+        <v>-17.259596109815572</v>
+      </c>
+      <c r="AH81">
+        <f t="shared" si="13"/>
+        <v>17.259596109815572</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1.1660557983816731</v>
       </c>
@@ -3967,11 +5118,11 @@
         <v>1.1259999999999999</v>
       </c>
       <c r="D82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.5573533198644021</v>
       </c>
       <c r="G82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.5573533198644021</v>
       </c>
       <c r="J82">
@@ -3981,7 +5132,7 @@
         <v>1.1259999999999999</v>
       </c>
       <c r="M82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.92861258830871618</v>
       </c>
       <c r="P82">
@@ -3994,15 +5145,29 @@
         <v>1.8540000000000001</v>
       </c>
       <c r="V82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-2.9344381248567903</v>
       </c>
       <c r="Y82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.9344381248567903</v>
       </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB82">
+        <v>1.7199419372065776</v>
+      </c>
+      <c r="AC82">
+        <v>1.7050000000000001</v>
+      </c>
+      <c r="AE82">
+        <f t="shared" si="12"/>
+        <v>0.87635995346495887</v>
+      </c>
+      <c r="AH82">
+        <f t="shared" si="13"/>
+        <v>0.87635995346495887</v>
+      </c>
+    </row>
+    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1.2350347506122399</v>
       </c>
@@ -4010,11 +5175,11 @@
         <v>1.1859999999999999</v>
       </c>
       <c r="D83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.1344646384687982</v>
       </c>
       <c r="G83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.1344646384687982</v>
       </c>
       <c r="J83">
@@ -4024,7 +5189,7 @@
         <v>1.1859999999999999</v>
       </c>
       <c r="M83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.33709198335466095</v>
       </c>
       <c r="P83">
@@ -4037,15 +5202,29 @@
         <v>1.956</v>
       </c>
       <c r="V83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.8379145961892388</v>
       </c>
       <c r="Y83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.8379145961892388</v>
       </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB83">
+        <v>2.1260969856073584</v>
+      </c>
+      <c r="AC83">
+        <v>1.788</v>
+      </c>
+      <c r="AE83">
+        <f t="shared" si="12"/>
+        <v>18.909227382961877</v>
+      </c>
+      <c r="AH83">
+        <f t="shared" si="13"/>
+        <v>18.909227382961877</v>
+      </c>
+    </row>
+    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>1.29590257345277</v>
       </c>
@@ -4053,11 +5232,11 @@
         <v>1.248</v>
       </c>
       <c r="D84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.8383472317924716</v>
       </c>
       <c r="G84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.8383472317924716</v>
       </c>
       <c r="J84">
@@ -4067,7 +5246,7 @@
         <v>1.248</v>
       </c>
       <c r="M84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3.7111146406686557E-2</v>
       </c>
       <c r="P84">
@@ -4080,15 +5259,29 @@
         <v>2.0579999999999998</v>
       </c>
       <c r="V84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.2389850866886341</v>
       </c>
       <c r="Y84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.2389850866886341</v>
       </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB84">
+        <v>2.5569195825695692</v>
+      </c>
+      <c r="AC84">
+        <v>1.871</v>
+      </c>
+      <c r="AE84">
+        <f t="shared" si="12"/>
+        <v>36.660586989287502</v>
+      </c>
+      <c r="AH84">
+        <f t="shared" si="13"/>
+        <v>36.660586989287502</v>
+      </c>
+    </row>
+    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>1.3513044244511077</v>
       </c>
@@ -4096,11 +5289,11 @@
         <v>1.3129999999999999</v>
       </c>
       <c r="D85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.9173209787591556</v>
       </c>
       <c r="G85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.9173209787591556</v>
       </c>
       <c r="J85">
@@ -4110,7 +5303,7 @@
         <v>1.3129999999999999</v>
       </c>
       <c r="M85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.28455656066824042</v>
       </c>
       <c r="P85">
@@ -4123,15 +5316,15 @@
         <v>0.85419999999999996</v>
       </c>
       <c r="V85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-13.411830048814652</v>
       </c>
       <c r="Y85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>13.411830048814652</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>1.4167849169563866</v>
       </c>
@@ -4139,11 +5332,11 @@
         <v>1.3959999999999999</v>
       </c>
       <c r="D86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4888908994546373</v>
       </c>
       <c r="G86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4888908994546373</v>
       </c>
       <c r="J86">
@@ -4153,7 +5346,7 @@
         <v>1.3959999999999999</v>
       </c>
       <c r="M86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.31928426330583615</v>
       </c>
       <c r="P86">
@@ -4166,15 +5359,15 @@
         <v>0.86870000000000003</v>
       </c>
       <c r="V86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-10.917517981517975</v>
       </c>
       <c r="Y86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10.917517981517975</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>1.4824152694683814</v>
       </c>
@@ -4182,11 +5375,11 @@
         <v>1.4810000000000001</v>
       </c>
       <c r="D87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.5561746683411913E-2</v>
       </c>
       <c r="G87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.5561746683411913E-2</v>
       </c>
       <c r="J87">
@@ -4196,7 +5389,7 @@
         <v>1.4810000000000001</v>
       </c>
       <c r="M87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.2048360289776118</v>
       </c>
       <c r="P87">
@@ -4209,15 +5402,15 @@
         <v>0.88690000000000002</v>
       </c>
       <c r="V87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-5.506159843807513</v>
       </c>
       <c r="Y87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.506159843807513</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>1.5523567866664667</v>
       </c>
@@ -4225,11 +5418,11 @@
         <v>1.5680000000000001</v>
       </c>
       <c r="D88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.99765391157738237</v>
       </c>
       <c r="G88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.99765391157738237</v>
       </c>
       <c r="J88">
@@ -4239,7 +5432,7 @@
         <v>1.5680000000000001</v>
       </c>
       <c r="M88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-8.1579972284161903E-2</v>
       </c>
       <c r="P88">
@@ -4252,15 +5445,15 @@
         <v>0.90739999999999998</v>
       </c>
       <c r="V88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-6.5732356644571485E-2</v>
       </c>
       <c r="Y88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6.5732356644571485E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1.6302234037365575</v>
       </c>
@@ -4268,11 +5461,11 @@
         <v>1.655</v>
       </c>
       <c r="D89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.4970753029270412</v>
       </c>
       <c r="G89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4970753029270412</v>
       </c>
       <c r="J89">
@@ -4282,7 +5475,7 @@
         <v>1.655</v>
       </c>
       <c r="M89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.1298064563863756E-2</v>
       </c>
       <c r="P89">
@@ -4295,15 +5488,15 @@
         <v>0.92979999999999996</v>
       </c>
       <c r="V89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.558911979450353</v>
       </c>
       <c r="Y89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.558911979450353</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>1.7190930370925965</v>
       </c>
@@ -4311,11 +5504,11 @@
         <v>1.744</v>
       </c>
       <c r="D90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.4281515428557032</v>
       </c>
       <c r="G90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4281515428557032</v>
       </c>
       <c r="J90">
@@ -4325,7 +5518,7 @@
         <v>1.744</v>
       </c>
       <c r="M90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.2753369288968922E-2</v>
       </c>
       <c r="P90">
@@ -4338,15 +5531,15 @@
         <v>0.95369999999999999</v>
       </c>
       <c r="V90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.158983971173015</v>
       </c>
       <c r="Y90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8.158983971173015</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>1.8215424438671464</v>
       </c>
@@ -4354,11 +5547,11 @@
         <v>1.8320000000000001</v>
       </c>
       <c r="D91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.57082729982825908</v>
       </c>
       <c r="G91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.57082729982825908</v>
       </c>
       <c r="J91">
@@ -4368,7 +5561,7 @@
         <v>1.8320000000000001</v>
       </c>
       <c r="M91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.6114806027477173E-2</v>
       </c>
       <c r="P91">
@@ -4381,15 +5574,15 @@
         <v>0.97889999999999999</v>
       </c>
       <c r="V91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10.739749025905395</v>
       </c>
       <c r="Y91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10.739749025905395</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>1.9396927415781344</v>
       </c>
@@ -4397,11 +5590,11 @@
         <v>1.919</v>
       </c>
       <c r="D92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0783085762446267</v>
       </c>
       <c r="G92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0783085762446267</v>
       </c>
       <c r="J92">
@@ -4411,7 +5604,7 @@
         <v>1.919</v>
       </c>
       <c r="M92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.474578134095292E-2</v>
       </c>
       <c r="P92">
@@ -4424,15 +5617,15 @@
         <v>1.0049999999999999</v>
       </c>
       <c r="V92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12.423731622085835</v>
       </c>
       <c r="Y92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12.423731622085835</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>0.98672784548663606</v>
       </c>
@@ -4440,11 +5633,11 @@
         <v>1.002</v>
       </c>
       <c r="D93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.5241671171021902</v>
       </c>
       <c r="G93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5241671171021902</v>
       </c>
       <c r="J93">
@@ -4454,7 +5647,7 @@
         <v>1.002</v>
       </c>
       <c r="M93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.4801018681141462</v>
       </c>
       <c r="P93">
@@ -4467,15 +5660,15 @@
         <v>1.0329999999999999</v>
       </c>
       <c r="V93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13.213916697520068</v>
       </c>
       <c r="Y93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>13.213916697520068</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>1.077778490328043</v>
       </c>
@@ -4483,11 +5676,11 @@
         <v>1.0549999999999999</v>
       </c>
       <c r="D94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.1590986092931774</v>
       </c>
       <c r="G94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.1590986092931774</v>
       </c>
       <c r="J94">
@@ -4497,7 +5690,7 @@
         <v>1.0549999999999999</v>
       </c>
       <c r="M94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.063465173556204</v>
       </c>
       <c r="P94">
@@ -4510,15 +5703,15 @@
         <v>1.091</v>
       </c>
       <c r="V94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13.019059272023522</v>
       </c>
       <c r="Y94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>13.019059272023522</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>1.1560035786279304</v>
       </c>
@@ -4526,11 +5719,11 @@
         <v>1.111</v>
       </c>
       <c r="D95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.0507271492286554</v>
       </c>
       <c r="G95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.0507271492286554</v>
       </c>
       <c r="J95">
@@ -4540,7 +5733,7 @@
         <v>1.111</v>
       </c>
       <c r="M95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.3709731039240707</v>
       </c>
       <c r="P95">
@@ -4553,15 +5746,15 @@
         <v>1.1519999999999999</v>
       </c>
       <c r="V95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>11.168869181517483</v>
       </c>
       <c r="Y95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>11.168869181517483</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>1.2233841070084743</v>
       </c>
@@ -4569,11 +5762,11 @@
         <v>1.169</v>
       </c>
       <c r="D96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.6521905054297941</v>
       </c>
       <c r="G96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.6521905054297941</v>
       </c>
       <c r="J96">
@@ -4583,7 +5776,7 @@
         <v>1.169</v>
       </c>
       <c r="M96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.78903585539373611</v>
       </c>
       <c r="P96">
@@ -4596,11 +5789,11 @@
         <v>1.216</v>
       </c>
       <c r="V96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.4082380137149588</v>
       </c>
       <c r="Y96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8.4082380137149588</v>
       </c>
     </row>
@@ -4612,11 +5805,11 @@
         <v>1.23</v>
       </c>
       <c r="D97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.262157311559938</v>
       </c>
       <c r="G97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.262157311559938</v>
       </c>
       <c r="J97">
@@ -4626,7 +5819,7 @@
         <v>1.23</v>
       </c>
       <c r="M97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.32806624736182338</v>
       </c>
       <c r="P97">
@@ -4639,11 +5832,11 @@
         <v>1.282</v>
       </c>
       <c r="V97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.3814906959260345</v>
       </c>
       <c r="Y97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.3814906959260345</v>
       </c>
     </row>
@@ -4655,11 +5848,11 @@
         <v>1.292</v>
       </c>
       <c r="D98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.3873910287535809</v>
       </c>
       <c r="G98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.3873910287535809</v>
       </c>
       <c r="J98">
@@ -4669,7 +5862,7 @@
         <v>1.292</v>
       </c>
       <c r="M98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.14188678887603628</v>
       </c>
       <c r="P98">
@@ -4682,11 +5875,11 @@
         <v>1.351</v>
       </c>
       <c r="V98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.3959782740347859</v>
       </c>
       <c r="Y98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.3959782740347859</v>
       </c>
     </row>
@@ -4698,11 +5891,11 @@
         <v>1.3720000000000001</v>
       </c>
       <c r="D99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9204460940666981</v>
       </c>
       <c r="G99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9204460940666981</v>
       </c>
       <c r="J99">
@@ -4712,7 +5905,7 @@
         <v>1.3720000000000001</v>
       </c>
       <c r="M99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.10179121713310005</v>
       </c>
       <c r="P99">
@@ -4725,11 +5918,11 @@
         <v>1.4410000000000001</v>
       </c>
       <c r="V99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.83561902389018716</v>
       </c>
       <c r="Y99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.83561902389018716</v>
       </c>
     </row>
@@ -4741,11 +5934,11 @@
         <v>1.454</v>
       </c>
       <c r="D100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.46418341100715693</v>
       </c>
       <c r="G100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.46418341100715693</v>
       </c>
       <c r="J100">
@@ -4755,7 +5948,7 @@
         <v>1.454</v>
       </c>
       <c r="M100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.18952851511148941</v>
       </c>
       <c r="P100">
@@ -4768,11 +5961,11 @@
         <v>1.532</v>
       </c>
       <c r="V100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-3.0252881365124318</v>
       </c>
       <c r="Y100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.0252881365124318</v>
       </c>
     </row>
@@ -4784,11 +5977,11 @@
         <v>1.5369999999999999</v>
       </c>
       <c r="D101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.64002372537886398</v>
       </c>
       <c r="G101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.64002372537886398</v>
       </c>
       <c r="J101">
@@ -4798,7 +5991,7 @@
         <v>1.5369999999999999</v>
       </c>
       <c r="M101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.33174883623767143</v>
       </c>
       <c r="P101">
@@ -4811,11 +6004,11 @@
         <v>1.627</v>
       </c>
       <c r="V101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-4.2417419885857885</v>
       </c>
       <c r="Y101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.2417419885857885</v>
       </c>
     </row>
@@ -4827,11 +6020,11 @@
         <v>1.62</v>
       </c>
       <c r="D102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.1578596227255511</v>
       </c>
       <c r="G102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1578596227255511</v>
       </c>
       <c r="J102">
@@ -4841,7 +6034,7 @@
         <v>1.62</v>
       </c>
       <c r="M102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.48227097847889044</v>
       </c>
       <c r="P102">
@@ -4854,11 +6047,11 @@
         <v>1.722</v>
       </c>
       <c r="V102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-4.2169063668583266</v>
       </c>
       <c r="Y102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.2169063668583266</v>
       </c>
     </row>
@@ -4870,11 +6063,11 @@
         <v>1.7050000000000001</v>
       </c>
       <c r="D103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.1080443162466127</v>
       </c>
       <c r="G103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1080443162466127</v>
       </c>
       <c r="J103">
@@ -4884,7 +6077,7 @@
         <v>1.7050000000000001</v>
       </c>
       <c r="M103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.44974290160350622</v>
       </c>
       <c r="P103">
@@ -4897,11 +6090,11 @@
         <v>1.819</v>
       </c>
       <c r="V103">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-3.1134796325993364</v>
       </c>
       <c r="Y103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.1134796325993364</v>
       </c>
     </row>
@@ -4913,11 +6106,11 @@
         <v>1.788</v>
       </c>
       <c r="D104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.20268983359589279</v>
       </c>
       <c r="G104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.20268983359589279</v>
       </c>
       <c r="J104">
@@ -4927,7 +6120,7 @@
         <v>1.788</v>
       </c>
       <c r="M104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.44116954124423602</v>
       </c>
       <c r="P104">
@@ -4940,11 +6133,11 @@
         <v>1.9159999999999999</v>
       </c>
       <c r="V104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.90186061853311605</v>
       </c>
       <c r="Y104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.90186061853311605</v>
       </c>
     </row>
@@ -4956,11 +6149,11 @@
         <v>1.871</v>
       </c>
       <c r="D105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4541423529808755</v>
       </c>
       <c r="G105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4541423529808755</v>
       </c>
       <c r="J105">
@@ -4970,7 +6163,7 @@
         <v>1.871</v>
       </c>
       <c r="M105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.32845090232680174</v>
       </c>
       <c r="P105">
@@ -4983,11 +6176,11 @@
         <v>2.0129999999999999</v>
       </c>
       <c r="V105">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.3177433389803781</v>
       </c>
       <c r="Y105">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.3177433389803781</v>
       </c>
     </row>
@@ -4999,11 +6192,11 @@
         <v>0.8498</v>
       </c>
       <c r="V106">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-12.867595928643553</v>
       </c>
       <c r="Y106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12.867595928643553</v>
       </c>
     </row>
@@ -5015,11 +6208,11 @@
         <v>0.86370000000000002</v>
       </c>
       <c r="V107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-10.302861868007883</v>
       </c>
       <c r="Y107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10.302861868007883</v>
       </c>
     </row>
@@ -5031,11 +6224,11 @@
         <v>0.88139999999999996</v>
       </c>
       <c r="V108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-4.8389570334996597</v>
       </c>
       <c r="Y108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.8389570334996597</v>
       </c>
     </row>
@@ -5047,11 +6240,11 @@
         <v>0.90129999999999999</v>
       </c>
       <c r="V109">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.64663680811192625</v>
       </c>
       <c r="Y109">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.64663680811192625</v>
       </c>
     </row>
@@ -5063,11 +6256,11 @@
         <v>0.92310000000000003</v>
       </c>
       <c r="V110">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.2959839307250709</v>
       </c>
       <c r="Y110">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.2959839307250709</v>
       </c>
     </row>
@@ -5079,11 +6272,11 @@
         <v>0.94640000000000002</v>
       </c>
       <c r="V111">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.9006959823129321</v>
       </c>
       <c r="Y111">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8.9006959823129321</v>
       </c>
     </row>
@@ -5095,11 +6288,11 @@
         <v>0.97099999999999997</v>
       </c>
       <c r="V112">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>11.467507468993007</v>
       </c>
       <c r="Y112">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>11.467507468993007</v>
       </c>
     </row>
@@ -5111,11 +6304,11 @@
         <v>0.99680000000000002</v>
       </c>
       <c r="V113">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13.087360893989974</v>
       </c>
       <c r="Y113">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>13.087360893989974</v>
       </c>
     </row>
@@ -5127,11 +6320,11 @@
         <v>1.024</v>
       </c>
       <c r="V114">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13.854722371891354</v>
       </c>
       <c r="Y114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>13.854722371891354</v>
       </c>
     </row>
@@ -5143,11 +6336,11 @@
         <v>1.08</v>
       </c>
       <c r="V115">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13.621006827284477</v>
       </c>
       <c r="Y115">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>13.621006827284477</v>
       </c>
     </row>
@@ -5159,11 +6352,11 @@
         <v>1.139</v>
       </c>
       <c r="V116">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>11.690989947422622</v>
       </c>
       <c r="Y116">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>11.690989947422622</v>
       </c>
     </row>
@@ -5175,11 +6368,11 @@
         <v>1.2010000000000001</v>
       </c>
       <c r="V117">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.8232416974865675</v>
       </c>
       <c r="Y117">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8.8232416974865675</v>
       </c>
     </row>
@@ -5191,11 +6384,11 @@
         <v>1.266</v>
       </c>
       <c r="V118">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5926297814383101</v>
       </c>
       <c r="Y118">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.5926297814383101</v>
       </c>
     </row>
@@ -5207,11 +6400,11 @@
         <v>1.333</v>
       </c>
       <c r="V119">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.4891354105441188</v>
       </c>
       <c r="Y119">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.4891354105441188</v>
       </c>
     </row>
@@ -5223,11 +6416,11 @@
         <v>1.419</v>
       </c>
       <c r="V120">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.77874237810013602</v>
       </c>
       <c r="Y120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.77874237810013602</v>
       </c>
     </row>
@@ -5239,11 +6432,11 @@
         <v>1.5069999999999999</v>
       </c>
       <c r="V121">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-3.065354485808975</v>
       </c>
       <c r="Y121">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.065354485808975</v>
       </c>
     </row>
@@ -5255,11 +6448,11 @@
         <v>1.5980000000000001</v>
       </c>
       <c r="V122">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-4.2972943219195114</v>
       </c>
       <c r="Y122">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.2972943219195114</v>
       </c>
     </row>
@@ -5271,11 +6464,11 @@
         <v>1.69</v>
       </c>
       <c r="V123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-4.3206470031683306</v>
       </c>
       <c r="Y123">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.3206470031683306</v>
       </c>
     </row>
@@ -5287,11 +6480,11 @@
         <v>1.782</v>
       </c>
       <c r="V124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-3.1253375921759816</v>
       </c>
       <c r="Y124">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.1253375921759816</v>
       </c>
     </row>
@@ -5303,11 +6496,11 @@
         <v>1.875</v>
       </c>
       <c r="V125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.84715890635817925</v>
       </c>
       <c r="Y125">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.84715890635817925</v>
       </c>
     </row>
@@ -5319,11 +6512,11 @@
         <v>1.9670000000000001</v>
       </c>
       <c r="V126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.5231587254429249</v>
       </c>
       <c r="Y126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.5231587254429249</v>
       </c>
     </row>
@@ -5335,11 +6528,11 @@
         <v>0.8448</v>
       </c>
       <c r="V127">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-12.258362770758586</v>
       </c>
       <c r="Y127">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12.258362770758586</v>
       </c>
     </row>
@@ -5351,11 +6544,11 @@
         <v>0.85809999999999997</v>
       </c>
       <c r="V128">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-9.6209306380038253</v>
       </c>
       <c r="Y128">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.6209306380038253</v>
       </c>
     </row>
@@ -5367,11 +6560,11 @@
         <v>0.875</v>
       </c>
       <c r="V129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-4.0671813328890902</v>
       </c>
       <c r="Y129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.0671813328890902</v>
       </c>
     </row>
@@ -5383,11 +6576,11 @@
         <v>0.89439999999999997</v>
       </c>
       <c r="V130">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.4582779312275977</v>
       </c>
       <c r="Y130">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.4582779312275977</v>
       </c>
     </row>
@@ -5399,11 +6592,11 @@
         <v>0.91549999999999998</v>
       </c>
       <c r="V131">
-        <f t="shared" ref="V131:V168" si="10">((S131-T131)/T131)*100</f>
+        <f t="shared" ref="V131:V168" si="14">((S131-T131)/T131)*100</f>
         <v>6.1487531208808788</v>
       </c>
       <c r="Y131">
-        <f t="shared" ref="Y131:Y168" si="11">ABS(V131)</f>
+        <f t="shared" ref="Y131:Y168" si="15">ABS(V131)</f>
         <v>6.1487531208808788</v>
       </c>
     </row>
@@ -5415,11 +6608,11 @@
         <v>0.93810000000000004</v>
       </c>
       <c r="V132">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>9.773674942699099</v>
       </c>
       <c r="Y132">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>9.773674942699099</v>
       </c>
     </row>
@@ -5431,11 +6624,11 @@
         <v>0.96209999999999996</v>
       </c>
       <c r="V133">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>12.329160659443735</v>
       </c>
       <c r="Y133">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>12.329160659443735</v>
       </c>
     </row>
@@ -5447,11 +6640,11 @@
         <v>0.98709999999999998</v>
       </c>
       <c r="V134">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>13.942911724019913</v>
       </c>
       <c r="Y134">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>13.942911724019913</v>
       </c>
     </row>
@@ -5463,11 +6656,11 @@
         <v>1.0129999999999999</v>
       </c>
       <c r="V135">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>14.743880925523904</v>
       </c>
       <c r="Y135">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>14.743880925523904</v>
       </c>
     </row>
@@ -5479,11 +6672,11 @@
         <v>1.0680000000000001</v>
       </c>
       <c r="V136">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>14.35923056563235</v>
       </c>
       <c r="Y136">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>14.35923056563235</v>
       </c>
     </row>
@@ -5495,11 +6688,11 @@
         <v>1.1259999999999999</v>
       </c>
       <c r="V137">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>12.248188257290812</v>
       </c>
       <c r="Y137">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>12.248188257290812</v>
       </c>
     </row>
@@ -5511,11 +6704,11 @@
         <v>1.1859999999999999</v>
       </c>
       <c r="V138">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>9.2777235484276961</v>
       </c>
       <c r="Y138">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>9.2777235484276961</v>
       </c>
     </row>
@@ -5527,11 +6720,11 @@
         <v>1.248</v>
       </c>
       <c r="V139">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.0133900616278808</v>
       </c>
       <c r="Y139">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.0133900616278808</v>
       </c>
     </row>
@@ -5543,11 +6736,11 @@
         <v>1.3129999999999999</v>
       </c>
       <c r="V140">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.7810051095498856</v>
       </c>
       <c r="Y140">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.7810051095498856</v>
       </c>
     </row>
@@ -5559,11 +6752,11 @@
         <v>1.3959999999999999</v>
       </c>
       <c r="V141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-0.60308803520455534</v>
       </c>
       <c r="Y141">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.60308803520455534</v>
       </c>
     </row>
@@ -5575,11 +6768,11 @@
         <v>1.4810000000000001</v>
       </c>
       <c r="V142">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-2.9902127813469486</v>
       </c>
       <c r="Y142">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.9902127813469486</v>
       </c>
     </row>
@@ -5591,11 +6784,11 @@
         <v>1.5680000000000001</v>
       </c>
       <c r="V143">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-4.2381975562957859</v>
       </c>
       <c r="Y143">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>4.2381975562957859</v>
       </c>
     </row>
@@ -5607,11 +6800,11 @@
         <v>1.655</v>
       </c>
       <c r="V144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-4.1954752686319923</v>
       </c>
       <c r="Y144">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>4.1954752686319923</v>
       </c>
     </row>
@@ -5623,11 +6816,11 @@
         <v>1.744</v>
       </c>
       <c r="V145">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-3.0191397216523312</v>
       </c>
       <c r="Y145">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>3.0191397216523312</v>
       </c>
     </row>
@@ -5639,11 +6832,11 @@
         <v>1.8320000000000001</v>
       </c>
       <c r="V146">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-0.61581410068629483</v>
       </c>
       <c r="Y146">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.61581410068629483</v>
       </c>
     </row>
@@ -5655,11 +6848,11 @@
         <v>1.919</v>
       </c>
       <c r="V147">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.9138225833566542</v>
       </c>
       <c r="Y147">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.9138225833566542</v>
       </c>
     </row>
@@ -5671,11 +6864,11 @@
         <v>0.83930000000000005</v>
       </c>
       <c r="V148">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-11.592021709985266</v>
       </c>
       <c r="Y148">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>11.592021709985266</v>
       </c>
     </row>
@@ -5687,11 +6880,11 @@
         <v>0.8518</v>
       </c>
       <c r="V149">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-8.8580771630065875</v>
       </c>
       <c r="Y149">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>8.8580771630065875</v>
       </c>
     </row>
@@ -5703,11 +6896,11 @@
         <v>0.86799999999999999</v>
       </c>
       <c r="V150">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-3.2194363237092718</v>
       </c>
       <c r="Y150">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>3.2194363237092718</v>
       </c>
     </row>
@@ -5719,11 +6912,11 @@
         <v>0.88660000000000005</v>
       </c>
       <c r="V151">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.3853181371139067</v>
       </c>
       <c r="Y151">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.3853181371139067</v>
       </c>
     </row>
@@ -5735,11 +6928,11 @@
         <v>0.90710000000000002</v>
       </c>
       <c r="V152">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>7.1108170664063035</v>
       </c>
       <c r="Y152">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7.1108170664063035</v>
       </c>
     </row>
@@ -5751,11 +6944,11 @@
         <v>0.92900000000000005</v>
       </c>
       <c r="V153">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>10.760239405043027</v>
       </c>
       <c r="Y153">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>10.760239405043027</v>
       </c>
     </row>
@@ -5767,11 +6960,11 @@
         <v>0.95220000000000005</v>
       </c>
       <c r="V154">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>13.330859281195428</v>
       </c>
       <c r="Y154">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>13.330859281195428</v>
       </c>
     </row>
@@ -5783,11 +6976,11 @@
         <v>0.97650000000000003</v>
       </c>
       <c r="V155">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>14.928910678769094</v>
       </c>
       <c r="Y155">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>14.928910678769094</v>
       </c>
     </row>
@@ -5799,11 +6992,11 @@
         <v>1.002</v>
       </c>
       <c r="V156">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15.662943011584089</v>
       </c>
       <c r="Y156">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>15.662943011584089</v>
       </c>
     </row>
@@ -5815,11 +7008,11 @@
         <v>1.0549999999999999</v>
       </c>
       <c r="V157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15.239466210417248</v>
       </c>
       <c r="Y157">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>15.239466210417248</v>
       </c>
     </row>
@@ -5831,11 +7024,11 @@
         <v>1.111</v>
       </c>
       <c r="V158">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>13.043448292899123</v>
       </c>
       <c r="Y158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>13.043448292899123</v>
       </c>
     </row>
@@ -5847,11 +7040,11 @@
         <v>1.169</v>
       </c>
       <c r="V159">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>9.9592682858483119</v>
       </c>
       <c r="Y159">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>9.9592682858483119</v>
       </c>
     </row>
@@ -5863,11 +7056,11 @@
         <v>1.23</v>
       </c>
       <c r="V160">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.4795425475739981</v>
       </c>
       <c r="Y160">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.4795425475739981</v>
       </c>
     </row>
@@ -5879,11 +7072,11 @@
         <v>1.292</v>
       </c>
       <c r="V161">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3.1998404485165404</v>
       </c>
       <c r="Y161">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>3.1998404485165404</v>
       </c>
     </row>
@@ -5895,11 +7088,11 @@
         <v>1.3720000000000001</v>
       </c>
       <c r="V162">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-0.305059410954022</v>
       </c>
       <c r="Y162">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.305059410954022</v>
       </c>
     </row>
@@ -5911,11 +7104,11 @@
         <v>1.454</v>
       </c>
       <c r="V163">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-2.796608930349461</v>
       </c>
       <c r="Y163">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.796608930349461</v>
       </c>
     </row>
@@ -5927,11 +7120,11 @@
         <v>1.5369999999999999</v>
       </c>
       <c r="V164">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-4.0609848675229339</v>
       </c>
       <c r="Y164">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>4.0609848675229339</v>
       </c>
     </row>
@@ -5943,11 +7136,11 @@
         <v>1.62</v>
       </c>
       <c r="V165">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-4.0075369337783036</v>
       </c>
       <c r="Y165">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>4.0075369337783036</v>
       </c>
     </row>
@@ -5959,11 +7152,11 @@
         <v>1.7050000000000001</v>
       </c>
       <c r="V166">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-2.7906190563362441</v>
       </c>
       <c r="Y166">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.7906190563362441</v>
       </c>
     </row>
@@ -5975,11 +7168,11 @@
         <v>1.788</v>
       </c>
       <c r="V167">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-0.25411152950485028</v>
       </c>
       <c r="Y167">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.25411152950485028</v>
       </c>
     </row>
@@ -5991,11 +7184,11 @@
         <v>1.871</v>
       </c>
       <c r="V168">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3.3904737846426398</v>
       </c>
       <c r="Y168">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>3.3904737846426398</v>
       </c>
     </row>
@@ -6006,10 +7199,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAAF4B3-C16A-4098-9087-1816DD82E6A7}">
-  <dimension ref="A1:Z50"/>
+  <dimension ref="A1:AI50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M50"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6020,9 +7213,11 @@
     <col min="13" max="13" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.7265625" style="1"/>
     <col min="19" max="19" width="10.6328125" customWidth="1"/>
+    <col min="27" max="27" width="8.7265625" style="1"/>
+    <col min="28" max="28" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -6059,8 +7254,20 @@
       <c r="Y1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.92405811496217505</v>
       </c>
@@ -6121,8 +7328,28 @@
       <c r="Z2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB2">
+        <v>-1.011203392235744</v>
+      </c>
+      <c r="AC2">
+        <v>0.74760000000000004</v>
+      </c>
+      <c r="AE2">
+        <f>((AB2-AC2)/AC2)*100</f>
+        <v>-235.25995080734936</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH2">
+        <f>ABS(AE2)</f>
+        <v>235.25995080734936</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.86213040564075383</v>
       </c>
@@ -6189,8 +7416,30 @@
         <f>AVERAGE(Y2:Y32)</f>
         <v>6.7660153153823597</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB3">
+        <v>-1.0035483753067302</v>
+      </c>
+      <c r="AC3">
+        <v>0.74939999999999996</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" ref="AE3:AE32" si="6">((AB3-AC3)/AC3)*100</f>
+        <v>-233.91358090562187</v>
+      </c>
+      <c r="AF3">
+        <f>AVERAGE(AE2:AE32)</f>
+        <v>-81.5630724417165</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH32" si="7">ABS(AE3)</f>
+        <v>233.91358090562187</v>
+      </c>
+      <c r="AI3">
+        <f>AVERAGE(AH2:AH32)</f>
+        <v>124.5473567739169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.86124550648997134</v>
       </c>
@@ -6233,8 +7482,22 @@
         <f t="shared" si="5"/>
         <v>7.2416846668042556</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB4">
+        <v>-0.22013866277459765</v>
+      </c>
+      <c r="AC4">
+        <v>0.7833</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="6"/>
+        <v>-128.10400392883923</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="7"/>
+        <v>128.10400392883923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.81490959799641216</v>
       </c>
@@ -6277,8 +7540,22 @@
         <f t="shared" si="5"/>
         <v>3.206535608329987</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB5">
+        <v>-6.5572031975900122E-3</v>
+      </c>
+      <c r="AC5">
+        <v>0.79339999999999999</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="6"/>
+        <v>-100.82646876702673</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="7"/>
+        <v>100.82646876702673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.81629914002657211</v>
       </c>
@@ -6321,8 +7598,22 @@
         <f t="shared" si="5"/>
         <v>3.353285455107244</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB6">
+        <v>2.1667352606385544</v>
+      </c>
+      <c r="AC6">
+        <v>0.90010000000000001</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="6"/>
+        <v>140.72161544701191</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="7"/>
+        <v>140.72161544701191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.82946637717888905</v>
       </c>
@@ -6365,8 +7656,22 @@
         <f t="shared" si="5"/>
         <v>8.7529161401690079</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB7">
+        <v>1.4501810852766612</v>
+      </c>
+      <c r="AC7">
+        <v>0.88049999999999995</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="6"/>
+        <v>64.699725755441378</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="7"/>
+        <v>64.699725755441378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.82798742218968557</v>
       </c>
@@ -6409,8 +7714,22 @@
         <f t="shared" si="5"/>
         <v>8.0220835908093946</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB8">
+        <v>1.4373034632750055</v>
+      </c>
+      <c r="AC8">
+        <v>0.88009999999999999</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="6"/>
+        <v>63.311380897057781</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="7"/>
+        <v>63.311380897057781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.82529477496265846</v>
       </c>
@@ -6453,8 +7772,22 @@
         <f t="shared" si="5"/>
         <v>13.209011072786595</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB9">
+        <v>-0.25211831712830962</v>
+      </c>
+      <c r="AC9">
+        <v>0.82820000000000005</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="6"/>
+        <v>-130.44171904471258</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="7"/>
+        <v>130.44171904471258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.82265722990196266</v>
       </c>
@@ -6497,8 +7830,22 @@
         <f t="shared" si="5"/>
         <v>13.595541511212136</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB10">
+        <v>-0.34575345425034082</v>
+      </c>
+      <c r="AC10">
+        <v>0.82540000000000002</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="6"/>
+        <v>-141.88919969110017</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="7"/>
+        <v>141.88919969110017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.85902491276987392</v>
       </c>
@@ -6541,8 +7888,22 @@
         <f t="shared" si="5"/>
         <v>14.580255030756165</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB11">
+        <v>1.4045516309253236</v>
+      </c>
+      <c r="AC11">
+        <v>0.87939999999999996</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="6"/>
+        <v>59.717037858235578</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="7"/>
+        <v>59.717037858235578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.83584997412922013</v>
       </c>
@@ -6585,8 +7946,22 @@
         <f t="shared" si="5"/>
         <v>15.248934467191058</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB12">
+        <v>1.0010515550998575</v>
+      </c>
+      <c r="AC12">
+        <v>0.86750000000000005</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="6"/>
+        <v>15.394991942346687</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="7"/>
+        <v>15.394991942346687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.81909571525991598</v>
       </c>
@@ -6629,8 +8004,22 @@
         <f t="shared" si="5"/>
         <v>3.7566405741469793</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB13">
+        <v>0.53527661257478254</v>
+      </c>
+      <c r="AC13">
+        <v>0.85389999999999999</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="6"/>
+        <v>-37.31389945253747</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="7"/>
+        <v>37.31389945253747</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.81360630493643404</v>
       </c>
@@ -6673,8 +8062,22 @@
         <f t="shared" si="5"/>
         <v>7.6527312094007023</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB14">
+        <v>-0.12345902345627877</v>
+      </c>
+      <c r="AC14">
+        <v>0.83260000000000001</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="6"/>
+        <v>-114.82813157053553</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="7"/>
+        <v>114.82813157053553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.81590579611995162</v>
       </c>
@@ -6717,8 +8120,22 @@
         <f t="shared" si="5"/>
         <v>1.0398462726995576</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB15">
+        <v>-0.32148190516651981</v>
+      </c>
+      <c r="AC15">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="6"/>
+        <v>-138.87326543730592</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="7"/>
+        <v>138.87326543730592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.81799660768135596</v>
       </c>
@@ -6761,8 +8178,22 @@
         <f t="shared" si="5"/>
         <v>4.2392913260862572</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB16">
+        <v>-0.43755106785995856</v>
+      </c>
+      <c r="AC16">
+        <v>0.8216</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="6"/>
+        <v>-153.25597223222476</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="7"/>
+        <v>153.25597223222476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.82821896642154547</v>
       </c>
@@ -6805,8 +8236,22 @@
         <f t="shared" si="5"/>
         <v>3.1825181810692151</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB17">
+        <v>-0.83846215158050352</v>
+      </c>
+      <c r="AC17">
+        <v>0.80589999999999995</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="6"/>
+        <v>-204.04047047778923</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="7"/>
+        <v>204.04047047778923</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.83448729797585719</v>
       </c>
@@ -6849,8 +8294,22 @@
         <f t="shared" si="5"/>
         <v>1.916148950673296</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB18">
+        <v>-1.2469977454280763</v>
+      </c>
+      <c r="AC18">
+        <v>0.78310000000000002</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="6"/>
+        <v>-259.23863432870337</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="7"/>
+        <v>259.23863432870337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.83501477543177316</v>
       </c>
@@ -6893,8 +8352,22 @@
         <f t="shared" si="5"/>
         <v>7.6561245460446461</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB19">
+        <v>-0.74168104871005491</v>
+      </c>
+      <c r="AC19">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="6"/>
+        <v>-194.7229947266992</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="7"/>
+        <v>194.7229947266992</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.83062401295971744</v>
       </c>
@@ -6937,8 +8410,22 @@
         <f t="shared" si="5"/>
         <v>13.568933300636862</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB20">
+        <v>-0.47347408335383384</v>
+      </c>
+      <c r="AC20">
+        <v>0.79010000000000002</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="6"/>
+        <v>-159.92584272292544</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="7"/>
+        <v>159.92584272292544</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.81839013335433564</v>
       </c>
@@ -6981,8 +8468,22 @@
         <f t="shared" si="5"/>
         <v>4.0184464608262909</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB21">
+        <v>-0.91657950473119787</v>
+      </c>
+      <c r="AC21">
+        <v>0.78180000000000005</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="6"/>
+        <v>-217.23963989910433</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="7"/>
+        <v>217.23963989910433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.79625674996631157</v>
       </c>
@@ -7025,8 +8526,22 @@
         <f t="shared" si="5"/>
         <v>6.6852097266666712</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB22">
+        <v>-0.76983314229134225</v>
+      </c>
+      <c r="AC22">
+        <v>0.78459999999999996</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="6"/>
+        <v>-198.11791260404567</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="7"/>
+        <v>198.11791260404567</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.77542624831297957</v>
       </c>
@@ -7069,8 +8584,22 @@
         <f t="shared" si="5"/>
         <v>7.7195359058095452</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB23">
+        <v>1.2472885227361725</v>
+      </c>
+      <c r="AC23">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="6"/>
+        <v>32.831578566152565</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="7"/>
+        <v>32.831578566152565</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.77063180042910284</v>
       </c>
@@ -7113,8 +8642,22 @@
         <f t="shared" si="5"/>
         <v>2.5560661110756078</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB24">
+        <v>0.96405968714009382</v>
+      </c>
+      <c r="AC24">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="6"/>
+        <v>3.8297993688846343</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="7"/>
+        <v>3.8297993688846343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.77474369690966416</v>
       </c>
@@ -7157,8 +8700,22 @@
         <f t="shared" si="5"/>
         <v>6.9594047090485844</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB25">
+        <v>-0.42655560779074508</v>
+      </c>
+      <c r="AC25">
+        <v>0.86890000000000001</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="6"/>
+        <v>-149.09144985507481</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="7"/>
+        <v>149.09144985507481</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.91616863591085751</v>
       </c>
@@ -7201,8 +8758,22 @@
         <f t="shared" si="5"/>
         <v>5.8472553992582759</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB26">
+        <v>2.0360063473144523</v>
+      </c>
+      <c r="AC26">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="6"/>
+        <v>111.44525364154663</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="7"/>
+        <v>111.44525364154663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.89664241738292882</v>
       </c>
@@ -7245,8 +8816,22 @@
         <f t="shared" si="5"/>
         <v>0.73306883769157982</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB27">
+        <v>1.965937871350713</v>
+      </c>
+      <c r="AC27">
+        <v>0.96060000000000001</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="6"/>
+        <v>104.65728412978481</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="7"/>
+        <v>104.65728412978481</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.8569162005872708</v>
       </c>
@@ -7289,8 +8874,22 @@
         <f t="shared" si="5"/>
         <v>7.0651949799716602</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB28">
+        <v>1.6075819799060964</v>
+      </c>
+      <c r="AC28">
+        <v>0.9476</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="6"/>
+        <v>69.647739542644189</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="7"/>
+        <v>69.647739542644189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.86476794464571494</v>
       </c>
@@ -7333,8 +8932,22 @@
         <f t="shared" si="5"/>
         <v>9.4950047936902688</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB29">
+        <v>0.84863667506314011</v>
+      </c>
+      <c r="AC29">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="6"/>
+        <v>-7.6565097863830172</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="7"/>
+        <v>7.6565097863830172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.86090827466714404</v>
       </c>
@@ -7377,8 +8990,22 @@
         <f t="shared" si="5"/>
         <v>9.4647795138444941</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB30">
+        <v>0.32221466967455087</v>
+      </c>
+      <c r="AC30">
+        <v>0.89790000000000003</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="6"/>
+        <v>-64.114637523716354</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="7"/>
+        <v>64.114637523716354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.85857225313753882</v>
       </c>
@@ -7421,8 +9048,22 @@
         <f t="shared" si="5"/>
         <v>1.5957300164178432</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB31">
+        <v>-8.7126289207701407E-3</v>
+      </c>
+      <c r="AC31">
+        <v>0.88390000000000002</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="6"/>
+        <v>-100.98570301174004</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="7"/>
+        <v>100.98570301174004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.8203785251026221</v>
       </c>
@@ -7464,6 +9105,20 @@
       <c r="Y32">
         <f t="shared" si="5"/>
         <v>16.750981809024346</v>
+      </c>
+      <c r="AB32">
+        <v>-1.0406804650180661</v>
+      </c>
+      <c r="AC32">
+        <v>0.83340000000000003</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="6"/>
+        <v>-224.8716660688824</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="7"/>
+        <v>224.8716660688824</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
@@ -7915,10 +9570,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC59EB8-3B0E-4A2F-B717-ED3E63099A49}">
-  <dimension ref="A1:Y55"/>
+  <dimension ref="A1:AI55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7928,9 +9583,11 @@
     <col min="10" max="10" width="10.36328125" customWidth="1"/>
     <col min="18" max="18" width="8.7265625" style="1"/>
     <col min="19" max="19" width="13.26953125" customWidth="1"/>
+    <col min="27" max="27" width="8.7265625" style="1"/>
+    <col min="28" max="28" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -7967,8 +9624,20 @@
       <c r="Y1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2.0022890493288861</v>
       </c>
@@ -8018,8 +9687,28 @@
       <c r="W2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB2">
+        <v>-0.49476078795914802</v>
+      </c>
+      <c r="AC2">
+        <v>1.0198</v>
+      </c>
+      <c r="AE2">
+        <f>((AB2-AC2)/AC2)*100</f>
+        <v>-148.51547244157169</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH2">
+        <f>ABS(AE2)</f>
+        <v>148.51547244157169</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1.9578788176933977</v>
       </c>
@@ -8073,8 +9762,30 @@
       <c r="Y3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB3">
+        <v>-0.51759207726956324</v>
+      </c>
+      <c r="AC3">
+        <v>1.0125</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" ref="AE3:AE21" si="4">((AB3-AC3)/AC3)*100</f>
+        <v>-151.120205162426</v>
+      </c>
+      <c r="AF3">
+        <f>AVERAGE(AE2:AE21)</f>
+        <v>-67.190495581224837</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH21" si="5">ABS(AE3)</f>
+        <v>151.120205162426</v>
+      </c>
+      <c r="AI3">
+        <f>AVERAGE(AH2:AH21)</f>
+        <v>112.30537422899856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1.91520264357748</v>
       </c>
@@ -8109,8 +9820,22 @@
         <f t="shared" si="3"/>
         <v>9.7402550623041915</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB4">
+        <v>-0.53830985646924123</v>
+      </c>
+      <c r="AC4">
+        <v>1.0108999999999999</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="4"/>
+        <v>-153.25055460176489</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="5"/>
+        <v>153.25055460176489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1.8741289043834364</v>
       </c>
@@ -8145,8 +9870,22 @@
         <f t="shared" si="3"/>
         <v>9.3285873057110411</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB5">
+        <v>-0.55699682155966745</v>
+      </c>
+      <c r="AC5">
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="4"/>
+        <v>-156.14321354295612</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="5"/>
+        <v>156.14321354295612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1.8349485671985817</v>
       </c>
@@ -8181,8 +9920,22 @@
         <f t="shared" si="3"/>
         <v>9.6851176354033459</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB6">
+        <v>-0.57389000740958029</v>
+      </c>
+      <c r="AC6">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="4"/>
+        <v>-158.11544378831192</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="5"/>
+        <v>158.11544378831192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1.7973041942427743</v>
       </c>
@@ -8217,8 +9970,22 @@
         <f t="shared" si="3"/>
         <v>10.176644156575518</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB7">
+        <v>-0.58982923080177485</v>
+      </c>
+      <c r="AC7">
+        <v>0.98640000000000005</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="4"/>
+        <v>-159.79615073010694</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="5"/>
+        <v>159.79615073010694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1.7610751374209477</v>
       </c>
@@ -8253,8 +10020,22 @@
         <f t="shared" si="3"/>
         <v>10.854881971876566</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB8">
+        <v>-0.6045808356924729</v>
+      </c>
+      <c r="AC8">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="4"/>
+        <v>-162.07195438321079</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="5"/>
+        <v>162.07195438321079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2.2187409660544861</v>
       </c>
@@ -8289,8 +10070,22 @@
         <f t="shared" si="3"/>
         <v>10.464661136561748</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB9">
+        <v>-7.0412009927188698E-2</v>
+      </c>
+      <c r="AC9">
+        <v>2.6629999999999998</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="4"/>
+        <v>-102.64408599050651</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="5"/>
+        <v>102.64408599050651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2.1629353210037623</v>
       </c>
@@ -8325,8 +10120,22 @@
         <f t="shared" si="3"/>
         <v>10.238013116899381</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB10">
+        <v>-0.19598313896000236</v>
+      </c>
+      <c r="AC10">
+        <v>2.5760000000000001</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="4"/>
+        <v>-107.60804110869573</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="5"/>
+        <v>107.60804110869573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2.1093113749735282</v>
       </c>
@@ -8361,8 +10170,22 @@
         <f t="shared" si="3"/>
         <v>10.12340100239145</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB11">
+        <v>-0.40850924249166359</v>
+      </c>
+      <c r="AC11">
+        <v>2.3929999999999998</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="4"/>
+        <v>-117.07100887971851</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="5"/>
+        <v>117.07100887971851</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2.0578451054771261</v>
       </c>
@@ -8397,8 +10220,22 @@
         <f t="shared" si="3"/>
         <v>10.578063834083007</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB12">
+        <v>-0.4983552879931446</v>
+      </c>
+      <c r="AC12">
+        <v>2.3069999999999999</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="4"/>
+        <v>-121.60187637594906</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="5"/>
+        <v>121.60187637594906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2.0083601219323466</v>
       </c>
@@ -8433,8 +10270,22 @@
         <f t="shared" si="3"/>
         <v>11.423435217953751</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB13">
+        <v>-0.58815362944017202</v>
+      </c>
+      <c r="AC13">
+        <v>2.2149999999999999</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="4"/>
+        <v>-126.55321126140733</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="5"/>
+        <v>126.55321126140733</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.9606974568530458</v>
       </c>
@@ -8469,8 +10320,22 @@
         <f t="shared" si="3"/>
         <v>12.73749344148051</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB14">
+        <v>-0.64834797090174856</v>
+      </c>
+      <c r="AC14">
+        <v>2.1280000000000001</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="4"/>
+        <v>-130.46747983560849</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="5"/>
+        <v>130.46747983560849</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.9148264322942108</v>
       </c>
@@ -8505,8 +10370,22 @@
         <f t="shared" si="3"/>
         <v>14.476338681903677</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB15">
+        <v>4.7234649998931566</v>
+      </c>
+      <c r="AC15">
+        <v>3.0539999999999998</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="4"/>
+        <v>54.66486574633781</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="5"/>
+        <v>54.66486574633781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2.3707549268126047</v>
       </c>
@@ -8531,8 +10410,22 @@
         <f t="shared" si="2"/>
         <v>2.5199100856738275</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="AB16">
+        <v>4.5841970198910094</v>
+      </c>
+      <c r="AC16">
+        <v>2.911</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="4"/>
+        <v>57.478427340811031</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="5"/>
+        <v>57.478427340811031</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2.3036075520929167</v>
       </c>
@@ -8557,8 +10450,22 @@
         <f t="shared" si="2"/>
         <v>2.296954454736317</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="AB17">
+        <v>4.4609168206841439</v>
+      </c>
+      <c r="AC17">
+        <v>2.7839999999999998</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="4"/>
+        <v>60.234081202735069</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="5"/>
+        <v>60.234081202735069</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2.2390884075952644</v>
       </c>
@@ -8583,8 +10490,22 @@
         <f t="shared" si="2"/>
         <v>1.6806261856794638</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="AB18">
+        <v>4.3494736010722628</v>
+      </c>
+      <c r="AC18">
+        <v>2.6589999999999998</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="4"/>
+        <v>63.575539716895946</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="5"/>
+        <v>63.575539716895946</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2.176997989998267</v>
       </c>
@@ -8609,8 +10530,22 @@
         <f t="shared" si="2"/>
         <v>0.96192282354435665</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="AB19">
+        <v>4.2532104610445716</v>
+      </c>
+      <c r="AC19">
+        <v>2.5419999999999998</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="4"/>
+        <v>67.317484698842321</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="5"/>
+        <v>67.317484698842321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2.1173029446139728</v>
       </c>
@@ -8635,8 +10570,22 @@
         <f t="shared" si="2"/>
         <v>0.34069499311217338</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="AB20">
+        <v>4.1692516299092404</v>
+      </c>
+      <c r="AC20">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="4"/>
+        <v>71.574141148528398</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="5"/>
+        <v>71.574141148528398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2.0597284352113046</v>
       </c>
@@ -8661,8 +10610,22 @@
         <f t="shared" si="2"/>
         <v>1.1023957640717976</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="AB21">
+        <v>4.0973106915321491</v>
+      </c>
+      <c r="AC21">
+        <v>2.3239999999999998</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="4"/>
+        <v>76.304246623586465</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="5"/>
+        <v>76.304246623586465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2.0041626563089303</v>
       </c>
@@ -8688,7 +10651,7 @@
         <v>0.46427668624628654</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3.1132530014995976</v>
       </c>
@@ -8714,7 +10677,7 @@
         <v>1.0400474412529477</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2.9787971490110685</v>
       </c>
@@ -8740,7 +10703,7 @@
         <v>1.1645379391078321</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2.8499957314143667</v>
       </c>
@@ -8766,7 +10729,7 @@
         <v>1.2331641052450009</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2.7259081891709123</v>
       </c>
@@ -8792,7 +10755,7 @@
         <v>1.1953233551384304</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2.607202584071791</v>
       </c>
@@ -8818,7 +10781,7 @@
         <v>1.1761703341163245</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2.4931812900975934</v>
       </c>
@@ -8844,7 +10807,7 @@
         <v>1.0308667111831706</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2.3836984135817723</v>
       </c>
@@ -8870,7 +10833,7 @@
         <v>0.73358536300251131</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="J30">
         <v>1.983609532867495</v>
       </c>
@@ -8886,7 +10849,7 @@
         <v>0.32417220652917789</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="J31">
         <v>1.9286994137402782</v>
       </c>
@@ -8902,7 +10865,7 @@
         <v>0.20258799565036029</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="J32">
         <v>1.876022088251269</v>
       </c>
@@ -9293,10 +11256,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CACCF6A-688E-4B65-846A-1B1877B625B2}">
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M33"/>
+    <sheetView topLeftCell="Q1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9306,9 +11269,11 @@
     <col min="10" max="10" width="11.81640625" customWidth="1"/>
     <col min="18" max="18" width="8.7265625" style="1"/>
     <col min="19" max="19" width="10.90625" customWidth="1"/>
+    <col min="27" max="27" width="8.7265625" style="1"/>
+    <col min="28" max="28" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -9345,8 +11310,20 @@
       <c r="Y1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.33882982419368091</v>
       </c>
@@ -9407,8 +11384,28 @@
       <c r="Z2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB2">
+        <v>0.66810713873969185</v>
+      </c>
+      <c r="AC2">
+        <v>0.60050000000000003</v>
+      </c>
+      <c r="AE2">
+        <f>((AB2-AC2)/AC2)*100</f>
+        <v>11.258474394619785</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH2">
+        <f>ABS(AE2)</f>
+        <v>11.258474394619785</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.4885909835396281</v>
       </c>
@@ -9475,8 +11472,30 @@
         <f>AVERAGE(Y2:Y24)</f>
         <v>9.8564027806161167</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB3">
+        <v>0.60374948713514542</v>
+      </c>
+      <c r="AC3">
+        <v>0.59550000000000003</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" ref="AE3:AE27" si="6">((AB3-AC3)/AC3)*100</f>
+        <v>1.3853043048103098</v>
+      </c>
+      <c r="AF3">
+        <f>AVERAGE(AE2:AE27)</f>
+        <v>-29.200714854049167</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH27" si="7">ABS(AE3)</f>
+        <v>1.3853043048103098</v>
+      </c>
+      <c r="AI3">
+        <f>AVERAGE(AH2:AH27)</f>
+        <v>84.147941024921295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.46529034042537709</v>
       </c>
@@ -9519,8 +11538,22 @@
         <f t="shared" si="5"/>
         <v>9.4255015254206551</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB4">
+        <v>0.57421896192762589</v>
+      </c>
+      <c r="AC4">
+        <v>0.57840000000000003</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="6"/>
+        <v>-0.72286273727076977</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="7"/>
+        <v>0.72286273727076977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.43159935862008247</v>
       </c>
@@ -9563,8 +11596,22 @@
         <f t="shared" si="5"/>
         <v>13.293185585255543</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB5">
+        <v>0.57022465599907768</v>
+      </c>
+      <c r="AC5">
+        <v>0.55569999999999997</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="6"/>
+        <v>2.613758502623305</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="7"/>
+        <v>2.613758502623305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.39032505283072777</v>
       </c>
@@ -9607,8 +11654,22 @@
         <f t="shared" si="5"/>
         <v>15.222278503198943</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB6">
+        <v>0.58520370059543181</v>
+      </c>
+      <c r="AC6">
+        <v>0.52980000000000005</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="6"/>
+        <v>10.457474631074321</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="7"/>
+        <v>10.457474631074321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.34351045304447325</v>
       </c>
@@ -9651,8 +11712,22 @@
         <f t="shared" si="5"/>
         <v>15.702402426602911</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB7">
+        <v>0.61442216237386071</v>
+      </c>
+      <c r="AC7">
+        <v>0.50129999999999997</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="6"/>
+        <v>22.565761494885447</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="7"/>
+        <v>22.565761494885447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.70896869587052913</v>
       </c>
@@ -9695,8 +11770,22 @@
         <f t="shared" si="5"/>
         <v>15.201093416842093</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB8">
+        <v>0.65440389845106339</v>
+      </c>
+      <c r="AC8">
+        <v>0.47010000000000002</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="6"/>
+        <v>39.205253871742904</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="7"/>
+        <v>39.205253871742904</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.68675894326169229</v>
       </c>
@@ -9739,8 +11828,22 @@
         <f t="shared" si="5"/>
         <v>8.8213209209156354</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB9">
+        <v>1.7682743778935186</v>
+      </c>
+      <c r="AC9">
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="6"/>
+        <v>81.194218454095562</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="7"/>
+        <v>81.194218454095562</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.64218191753121168</v>
       </c>
@@ -9783,8 +11886,22 @@
         <f t="shared" si="5"/>
         <v>11.96639157971202</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB10">
+        <v>0.70085539641203709</v>
+      </c>
+      <c r="AC10">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="6"/>
+        <v>-24.149848873156163</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="7"/>
+        <v>24.149848873156163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.58191285879502175</v>
       </c>
@@ -9827,8 +11944,22 @@
         <f t="shared" si="5"/>
         <v>11.296183931864496</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB11">
+        <v>0.21106409143518517</v>
+      </c>
+      <c r="AC11">
+        <v>0.83540000000000003</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="6"/>
+        <v>-74.734966311325692</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="7"/>
+        <v>74.734966311325692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.51058862212650835</v>
       </c>
@@ -9871,8 +12002,22 @@
         <f t="shared" si="5"/>
         <v>8.1150975061113986</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB12">
+        <v>0.14481155960648148</v>
+      </c>
+      <c r="AC12">
+        <v>0.73170000000000002</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="6"/>
+        <v>-80.208888942670285</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="7"/>
+        <v>80.208888942670285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.43149478878548408</v>
       </c>
@@ -9915,8 +12060,22 @@
         <f t="shared" si="5"/>
         <v>2.7695334733218537</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB13">
+        <v>0.39324725115740738</v>
+      </c>
+      <c r="AC13">
+        <v>0.62429999999999997</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="6"/>
+        <v>-37.009890892614543</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="7"/>
+        <v>37.009890892614543</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.34699802074818664</v>
       </c>
@@ -9959,8 +12118,22 @@
         <f t="shared" si="5"/>
         <v>4.4318290575566799</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB14">
+        <v>0.87786639178240744</v>
+      </c>
+      <c r="AC14">
+        <v>0.52170000000000005</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="6"/>
+        <v>68.270345367530638</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="7"/>
+        <v>68.270345367530638</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.95623978471377524</v>
       </c>
@@ -10003,8 +12176,22 @@
         <f t="shared" si="5"/>
         <v>12.15105351661327</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB15">
+        <v>1.5409975405092593</v>
+      </c>
+      <c r="AC15">
+        <v>0.43290000000000001</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="6"/>
+        <v>255.97078782842669</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="7"/>
+        <v>255.97078782842669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.89807908189679975</v>
       </c>
@@ -10047,8 +12234,22 @@
         <f t="shared" si="5"/>
         <v>7.7051185737976198</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB16">
+        <v>3.1693776448567705E-3</v>
+      </c>
+      <c r="AC16">
+        <v>0.55779999999999996</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="6"/>
+        <v>-99.431807521538758</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="7"/>
+        <v>99.431807521538758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.82093328220846029</v>
       </c>
@@ -10091,8 +12292,22 @@
         <f t="shared" si="5"/>
         <v>9.7318227213966111</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB17">
+        <v>-0.33440060085720491</v>
+      </c>
+      <c r="AC17">
+        <v>0.53959999999999997</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="6"/>
+        <v>-161.97194233825147</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="7"/>
+        <v>161.97194233825147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.73090591996676979</v>
       </c>
@@ -10135,8 +12350,22 @@
         <f t="shared" si="5"/>
         <v>14.162667307378394</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB18">
+        <v>-0.58117972479926217</v>
+      </c>
+      <c r="AC18">
+        <v>0.52859999999999996</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="6"/>
+        <v>-209.94697782808589</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="7"/>
+        <v>209.94697782808589</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.63219427287724639</v>
       </c>
@@ -10179,8 +12408,22 @@
         <f t="shared" si="5"/>
         <v>15.76026873936277</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB19">
+        <v>-0.92977453161168988</v>
+      </c>
+      <c r="AC19">
+        <v>0.51880000000000004</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="6"/>
+        <v>-279.21637078097336</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="7"/>
+        <v>279.21637078097336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.52773897594454833</v>
       </c>
@@ -10223,8 +12466,22 @@
         <f t="shared" si="5"/>
         <v>14.763885389417727</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB20">
+        <v>-0.6356102529198232</v>
+      </c>
+      <c r="AC20">
+        <v>0.70320000000000005</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="6"/>
+        <v>-190.38826122295552</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="7"/>
+        <v>190.38826122295552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.41963122562790683</v>
       </c>
@@ -10267,8 +12524,22 @@
         <f t="shared" si="5"/>
         <v>6.4012923672638093</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB21">
+        <v>-0.35653573495370372</v>
+      </c>
+      <c r="AC21">
+        <v>0.74960000000000004</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="6"/>
+        <v>-147.56346517525395</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="7"/>
+        <v>147.56346517525395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.54313964465345221</v>
       </c>
@@ -10311,8 +12582,22 @@
         <f t="shared" si="5"/>
         <v>0.19243183491639296</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB22">
+        <v>-3.8890349559294865E-2</v>
+      </c>
+      <c r="AC22">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="6"/>
+        <v>-104.85522466408175</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="7"/>
+        <v>104.85522466408175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.54452610086194142</v>
       </c>
@@ -10355,8 +12640,22 @@
         <f t="shared" si="5"/>
         <v>7.9047459185091995</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB23">
+        <v>0.31442793588789686</v>
+      </c>
+      <c r="AC23">
+        <v>0.85750000000000004</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="6"/>
+        <v>-63.332019138437687</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="7"/>
+        <v>63.332019138437687</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.58659696173132636</v>
       </c>
@@ -10399,8 +12698,22 @@
         <f t="shared" si="5"/>
         <v>8.6272696471297099</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB24">
+        <v>1.1180623372395833</v>
+      </c>
+      <c r="AC24">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="6"/>
+        <v>13.324785854407381</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="7"/>
+        <v>13.324785854407381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.62337552066480839</v>
       </c>
@@ -10429,8 +12742,22 @@
         <f t="shared" si="3"/>
         <v>3.5837660473874808</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB25">
+        <v>1.5640238842933007</v>
+      </c>
+      <c r="AC25">
+        <v>1.0596000000000001</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="6"/>
+        <v>47.605123092987981</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="7"/>
+        <v>47.605123092987981</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.6560748184417915</v>
       </c>
@@ -10459,8 +12786,22 @@
         <f t="shared" si="3"/>
         <v>2.9948578119482763</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB26">
+        <v>2.0368637273341048</v>
+      </c>
+      <c r="AC26">
+        <v>1.1384000000000001</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="6"/>
+        <v>78.923377313255855</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="7"/>
+        <v>78.923377313255855</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.7178969309348997</v>
       </c>
@@ -10489,8 +12830,22 @@
         <f t="shared" si="3"/>
         <v>2.9057661847104788</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB27">
+        <v>2.079713935670211</v>
+      </c>
+      <c r="AC27">
+        <v>1.1456</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="6"/>
+        <v>81.539275110877369</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="7"/>
+        <v>81.539275110877369</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.75209346014204403</v>
       </c>
@@ -10520,7 +12875,7 @@
         <v>2.7783461008438435</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.79192367299121036</v>
       </c>
@@ -10550,7 +12905,7 @@
         <v>2.5059717982503704</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.83983301268228883</v>
       </c>
@@ -10580,7 +12935,7 @@
         <v>1.2761686723580883</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.96870114181847888</v>
       </c>
@@ -10610,7 +12965,7 @@
         <v>0.25151016796965253</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1.0535078775985336</v>
       </c>
@@ -10693,10 +13048,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98158B9B-AD31-4490-A844-663B5C0090C7}">
-  <dimension ref="A1:Z57"/>
+  <dimension ref="A1:AI57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M56"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AH7" sqref="AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10707,9 +13062,11 @@
     <col min="17" max="17" width="7.81640625" customWidth="1"/>
     <col min="18" max="18" width="8.7265625" style="1"/>
     <col min="19" max="19" width="11.1796875" customWidth="1"/>
+    <col min="27" max="27" width="8.7265625" style="1"/>
+    <col min="28" max="28" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -10746,8 +13103,20 @@
       <c r="Y1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.87006702693948734</v>
       </c>
@@ -10808,8 +13177,28 @@
       <c r="Z2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB2">
+        <v>0.33667869129990025</v>
+      </c>
+      <c r="AC2">
+        <v>0.93910000000000005</v>
+      </c>
+      <c r="AE2">
+        <f>((AB2-AC2)/AC2)*100</f>
+        <v>-64.148792322447008</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH2">
+        <f>ABS(AE2)</f>
+        <v>64.148792322447008</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.8735719484144715</v>
       </c>
@@ -10876,8 +13265,30 @@
         <f>AVERAGE(Y2:Y57)</f>
         <v>1.7032402495467578</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB3">
+        <v>0.29269442045108746</v>
+      </c>
+      <c r="AC3">
+        <v>0.94269999999999998</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" ref="AE3:AE57" si="6">((AB3-AC3)/AC3)*100</f>
+        <v>-68.951477622670268</v>
+      </c>
+      <c r="AF3">
+        <f>AVERAGE(AE2:AE57)</f>
+        <v>-27.681841830902787</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH57" si="7">ABS(AE3)</f>
+        <v>68.951477622670268</v>
+      </c>
+      <c r="AI3">
+        <f>AVERAGE(AH2:AH57)</f>
+        <v>38.286221023652324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.87691070079818823</v>
       </c>
@@ -10920,8 +13331,22 @@
         <f t="shared" si="5"/>
         <v>1.6445298472469068</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB4">
+        <v>0.29051667280003229</v>
+      </c>
+      <c r="AC4">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="6"/>
+        <v>-69.15958887473117</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="7"/>
+        <v>69.15958887473117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.88012236418421319</v>
       </c>
@@ -10964,8 +13389,22 @@
         <f t="shared" si="5"/>
         <v>7.6650505676271616E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB5">
+        <v>0.31937104911340058</v>
+      </c>
+      <c r="AC5">
+        <v>0.93159999999999998</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="6"/>
+        <v>-65.718006750386365</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="7"/>
+        <v>65.718006750386365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.96670924981514261</v>
       </c>
@@ -11008,8 +13447,22 @@
         <f t="shared" si="5"/>
         <v>3.5781538538995501</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB6">
+        <v>0.29271425666736622</v>
+      </c>
+      <c r="AC6">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="6"/>
+        <v>-69.732782890356077</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="7"/>
+        <v>69.732782890356077</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.96985327477951666</v>
       </c>
@@ -11052,8 +13505,22 @@
         <f t="shared" si="5"/>
         <v>2.33600160555685</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB7">
+        <v>0.22103273457532499</v>
+      </c>
+      <c r="AC7">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="6"/>
+        <v>-77.569237408633555</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="7"/>
+        <v>77.569237408633555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.9727678717830901</v>
       </c>
@@ -11096,8 +13563,22 @@
         <f t="shared" si="5"/>
         <v>2.8835050808595915</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB8">
+        <v>0.21790417025399206</v>
+      </c>
+      <c r="AC8">
+        <v>0.98370000000000002</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="6"/>
+        <v>-77.848513748704676</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="7"/>
+        <v>77.848513748704676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.97581550954585872</v>
       </c>
@@ -11140,8 +13621,22 @@
         <f t="shared" si="5"/>
         <v>3.9949429881573448</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB9">
+        <v>0.26584250359528588</v>
+      </c>
+      <c r="AC9">
+        <v>0.97470000000000001</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="6"/>
+        <v>-72.72571010615718</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="7"/>
+        <v>72.72571010615718</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1.0322839094498732</v>
       </c>
@@ -11184,8 +13679,22 @@
         <f t="shared" si="5"/>
         <v>4.0847104885857908</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB10">
+        <v>0.36679992472935136</v>
+      </c>
+      <c r="AC10">
+        <v>1.0073000000000001</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="6"/>
+        <v>-63.585830961049204</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="7"/>
+        <v>63.585830961049204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1.0330316601918124</v>
       </c>
@@ -11228,8 +13737,22 @@
         <f t="shared" si="5"/>
         <v>2.9755524677865757</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB11">
+        <v>0.30928025091634304</v>
+      </c>
+      <c r="AC11">
+        <v>1.0228999999999999</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="6"/>
+        <v>-69.764370816664083</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="7"/>
+        <v>69.764370816664083</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.0336662025938517</v>
       </c>
@@ -11272,8 +13795,22 @@
         <f t="shared" si="5"/>
         <v>2.8444987170000764</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB12">
+        <v>0.2766096898349476</v>
+      </c>
+      <c r="AC12">
+        <v>1.0270999999999999</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="6"/>
+        <v>-73.068864780941709</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="7"/>
+        <v>73.068864780941709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.0343587452545553</v>
       </c>
@@ -11316,8 +13853,22 @@
         <f t="shared" si="5"/>
         <v>3.0351332994179563</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB13">
+        <v>0.26552987178746779</v>
+      </c>
+      <c r="AC13">
+        <v>1.0266</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="6"/>
+        <v>-74.135021255847676</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="7"/>
+        <v>74.135021255847676</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.0350258217496051</v>
       </c>
@@ -11360,8 +13911,22 @@
         <f t="shared" si="5"/>
         <v>3.1721299629482993</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB14">
+        <v>0.27291494425856672</v>
+      </c>
+      <c r="AC14">
+        <v>1.0253000000000001</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="6"/>
+        <v>-73.381942430647925</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="7"/>
+        <v>73.381942430647925</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.0357480710645199</v>
       </c>
@@ -11404,8 +13969,22 @@
         <f t="shared" si="5"/>
         <v>3.6736640053269238</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB15">
+        <v>0.29639296327606757</v>
+      </c>
+      <c r="AC15">
+        <v>1.0193000000000001</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="6"/>
+        <v>-70.921910794067742</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="7"/>
+        <v>70.921910794067742</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.0365224317787924</v>
       </c>
@@ -11448,8 +14027,22 @@
         <f t="shared" si="5"/>
         <v>3.8057458005987601</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB16">
+        <v>0.33385784680767322</v>
+      </c>
+      <c r="AC16">
+        <v>1.016</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="6"/>
+        <v>-67.139975707906189</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="7"/>
+        <v>67.139975707906189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.0727989833652365</v>
       </c>
@@ -11492,8 +14085,22 @@
         <f t="shared" si="5"/>
         <v>2.711015085394036</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB17">
+        <v>0.4721124751862868</v>
+      </c>
+      <c r="AC17">
+        <v>1.0455000000000001</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="6"/>
+        <v>-54.843378748322635</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="7"/>
+        <v>54.843378748322635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.0724861719835534</v>
       </c>
@@ -11536,8 +14143,22 @@
         <f t="shared" si="5"/>
         <v>2.2951909218841391</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB18">
+        <v>0.40617740538673541</v>
+      </c>
+      <c r="AC18">
+        <v>1.0552999999999999</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="6"/>
+        <v>-61.510716821118592</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="7"/>
+        <v>61.510716821118592</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1.0721840425001599</v>
       </c>
@@ -11580,8 +14201,22 @@
         <f t="shared" si="5"/>
         <v>2.2325031558481041</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB19">
+        <v>0.36891205607372252</v>
+      </c>
+      <c r="AC19">
+        <v>1.0588</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="6"/>
+        <v>-65.15753153818261</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="7"/>
+        <v>65.15753153818261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1.0718916989610545</v>
       </c>
@@ -11624,8 +14259,22 @@
         <f t="shared" si="5"/>
         <v>2.4001351362621381</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB20">
+        <v>0.35625025104309049</v>
+      </c>
+      <c r="AC20">
+        <v>1.0576000000000001</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="6"/>
+        <v>-66.315218320433956</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="7"/>
+        <v>66.315218320433956</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1.0715484087434135</v>
       </c>
@@ -11668,8 +14317,22 @@
         <f t="shared" si="5"/>
         <v>2.2744558712832288</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB21">
+        <v>0.36456383827701977</v>
+      </c>
+      <c r="AC21">
+        <v>1.0573999999999999</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="6"/>
+        <v>-65.522617904575384</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="7"/>
+        <v>65.522617904575384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1.0713912533138663</v>
       </c>
@@ -11712,8 +14375,22 @@
         <f t="shared" si="5"/>
         <v>2.7697631352168575</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB22">
+        <v>0.39180046874913738</v>
+      </c>
+      <c r="AC22">
+        <v>1.0491999999999999</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="6"/>
+        <v>-62.657217999510337</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="7"/>
+        <v>62.657217999510337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1.0712900980058555</v>
       </c>
@@ -11756,8 +14433,22 @@
         <f t="shared" si="5"/>
         <v>3.027797578875473</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB23">
+        <v>0.43513204019920559</v>
+      </c>
+      <c r="AC23">
+        <v>1.042</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="6"/>
+        <v>-58.240687120997549</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="7"/>
+        <v>58.240687120997549</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1.1149327654290893</v>
       </c>
@@ -11800,8 +14491,22 @@
         <f t="shared" si="5"/>
         <v>1.0733926220474663</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB24">
+        <v>0.65876889157148555</v>
+      </c>
+      <c r="AC24">
+        <v>1.0887</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="6"/>
+        <v>-39.490319502940615</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="7"/>
+        <v>39.490319502940615</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1.1109279660279376</v>
       </c>
@@ -11844,8 +14549,22 @@
         <f t="shared" si="5"/>
         <v>0.52241597123320083</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB25">
+        <v>0.54010514509125473</v>
+      </c>
+      <c r="AC25">
+        <v>1.1037999999999999</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="6"/>
+        <v>-51.068568120016778</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="7"/>
+        <v>51.068568120016778</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1.1073989167767107</v>
       </c>
@@ -11888,8 +14607,22 @@
         <f t="shared" si="5"/>
         <v>0.25688571524940063</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB26">
+        <v>0.5362914201895157</v>
+      </c>
+      <c r="AC26">
+        <v>1.1021000000000001</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="6"/>
+        <v>-51.33913254790712</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="7"/>
+        <v>51.33913254790712</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1.1041680094738631</v>
       </c>
@@ -11932,8 +14665,22 @@
         <f t="shared" si="5"/>
         <v>0.41848442323134899</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB27">
+        <v>0.61760272961466156</v>
+      </c>
+      <c r="AC27">
+        <v>1.0853999999999999</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="6"/>
+        <v>-43.09906673902141</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="7"/>
+        <v>43.09906673902141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1.1810881362984156</v>
       </c>
@@ -11976,8 +14723,22 @@
         <f t="shared" si="5"/>
         <v>1.7082952755062246</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB28">
+        <v>1.0676425255375646</v>
+      </c>
+      <c r="AC28">
+        <v>1.1773</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="6"/>
+        <v>-9.3143187345991212</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="7"/>
+        <v>9.3143187345991212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1.175814377103106</v>
       </c>
@@ -12020,8 +14781,22 @@
         <f t="shared" si="5"/>
         <v>1.59651057052939</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB29">
+        <v>0.9790778256737277</v>
+      </c>
+      <c r="AC29">
+        <v>1.1841999999999999</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="6"/>
+        <v>-17.321582023836534</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="7"/>
+        <v>17.321582023836534</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1.17068382742465</v>
       </c>
@@ -12064,8 +14839,22 @@
         <f t="shared" si="5"/>
         <v>1.5304447467643998</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB30">
+        <v>0.92885023363439867</v>
+      </c>
+      <c r="AC30">
+        <v>1.1852</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="6"/>
+        <v>-21.629241171582969</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="7"/>
+        <v>21.629241171582969</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1.1657446193614791</v>
       </c>
@@ -12108,8 +14897,22 @@
         <f t="shared" si="5"/>
         <v>1.6266482917941929</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB31">
+        <v>0.91185396321637846</v>
+      </c>
+      <c r="AC31">
+        <v>1.1827000000000001</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="6"/>
+        <v>-22.90065416281573</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="7"/>
+        <v>22.90065416281573</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1.1610878511665816</v>
       </c>
@@ -12152,8 +14955,22 @@
         <f t="shared" si="5"/>
         <v>1.5863126540193926</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB32">
+        <v>0.92422384769782528</v>
+      </c>
+      <c r="AC32">
+        <v>1.1739999999999999</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="6"/>
+        <v>-21.275651814495287</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="7"/>
+        <v>21.275651814495287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1.1566355009017251</v>
       </c>
@@ -12196,8 +15013,22 @@
         <f t="shared" si="5"/>
         <v>1.8992227230651981</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB33">
+        <v>0.96168570112467899</v>
+      </c>
+      <c r="AC33">
+        <v>1.1655</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="6"/>
+        <v>-17.487284330786874</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="7"/>
+        <v>17.487284330786874</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1.1524171141207256</v>
       </c>
@@ -12240,8 +15071,22 @@
         <f t="shared" si="5"/>
         <v>1.9900860448650377</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB34">
+        <v>1.0213412195082454</v>
+      </c>
+      <c r="AC34">
+        <v>1.1509</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="6"/>
+        <v>-11.257170952450657</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="7"/>
+        <v>11.257170952450657</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1.1956194031369491</v>
       </c>
@@ -12284,8 +15129,22 @@
         <f t="shared" si="5"/>
         <v>1.8723636798710257</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB35">
+        <v>1.1564521637116174</v>
+      </c>
+      <c r="AC35">
+        <v>1.1949000000000001</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="6"/>
+        <v>-3.2176614183933938</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="7"/>
+        <v>3.2176614183933938</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1.1838520605913621</v>
       </c>
@@ -12328,8 +15187,22 @@
         <f t="shared" si="5"/>
         <v>1.6554374925005721</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB36">
+        <v>1.0139023139948389</v>
+      </c>
+      <c r="AC36">
+        <v>1.2022999999999999</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="6"/>
+        <v>-15.669773434680284</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="7"/>
+        <v>15.669773434680284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1.1730639096913507</v>
       </c>
@@ -12372,8 +15245,22 @@
         <f t="shared" si="5"/>
         <v>1.494335300953437</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB37">
+        <v>1.0091905607814662</v>
+      </c>
+      <c r="AC37">
+        <v>1.1871</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="6"/>
+        <v>-14.986895730648964</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="7"/>
+        <v>14.986895730648964</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1.1681119683714372</v>
       </c>
@@ -12416,8 +15303,22 @@
         <f t="shared" si="5"/>
         <v>1.5711988756311559</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB38">
+        <v>1.0479857401265924</v>
+      </c>
+      <c r="AC38">
+        <v>1.1748000000000001</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="6"/>
+        <v>-10.794540336517505</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="7"/>
+        <v>10.794540336517505</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1.163365599372957</v>
       </c>
@@ -12460,8 +15361,22 @@
         <f t="shared" si="5"/>
         <v>1.5130910942075855</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB39">
+        <v>1.1091240799145299</v>
+      </c>
+      <c r="AC39">
+        <v>1.1572</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="6"/>
+        <v>-4.1545039824982828</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="7"/>
+        <v>4.1545039824982828</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1.2372056801594824</v>
       </c>
@@ -12504,8 +15419,22 @@
         <f t="shared" si="5"/>
         <v>1.5277726159710225</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB40">
+        <v>1.3908934253146017</v>
+      </c>
+      <c r="AC40">
+        <v>1.2384999999999999</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="6"/>
+        <v>12.304677054065545</v>
+      </c>
+      <c r="AH40">
+        <f t="shared" si="7"/>
+        <v>12.304677054065545</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1.2222267291166107</v>
       </c>
@@ -12548,8 +15477,22 @@
         <f t="shared" si="5"/>
         <v>0.81849899567369555</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB41">
+        <v>1.2410612010202715</v>
+      </c>
+      <c r="AC41">
+        <v>1.2398</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="6"/>
+        <v>0.10172616714562803</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="7"/>
+        <v>0.10172616714562803</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1.2083482344550529</v>
       </c>
@@ -12592,8 +15535,22 @@
         <f t="shared" si="5"/>
         <v>0.55328207342397928</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB42">
+        <v>1.2357199283486286</v>
+      </c>
+      <c r="AC42">
+        <v>1.2199</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="6"/>
+        <v>1.2968217352757327</v>
+      </c>
+      <c r="AH42">
+        <f t="shared" si="7"/>
+        <v>1.2968217352757327</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1.1961656894886985</v>
       </c>
@@ -12636,8 +15593,22 @@
         <f t="shared" si="5"/>
         <v>0.92011716748644568</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB43">
+        <v>1.3425569388462906</v>
+      </c>
+      <c r="AC43">
+        <v>1.1889000000000001</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="6"/>
+        <v>12.924294629177432</v>
+      </c>
+      <c r="AH43">
+        <f t="shared" si="7"/>
+        <v>12.924294629177432</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1.2795784287095007</v>
       </c>
@@ -12680,8 +15651,22 @@
         <f t="shared" si="5"/>
         <v>0.36562886070266959</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB44">
+        <v>1.6015264238775586</v>
+      </c>
+      <c r="AC44">
+        <v>1.2747999999999999</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="6"/>
+        <v>25.629622205644704</v>
+      </c>
+      <c r="AH44">
+        <f t="shared" si="7"/>
+        <v>25.629622205644704</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1.2704796734929602</v>
       </c>
@@ -12724,8 +15709,22 @@
         <f t="shared" si="5"/>
         <v>0.37050161021969397</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB45">
+        <v>1.5017680839514471</v>
+      </c>
+      <c r="AC45">
+        <v>1.2746999999999999</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="6"/>
+        <v>17.813452887067324</v>
+      </c>
+      <c r="AH45">
+        <f t="shared" si="7"/>
+        <v>17.813452887067324</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1.2617377687203906</v>
       </c>
@@ -12768,8 +15767,22 @@
         <f t="shared" si="5"/>
         <v>0.65681959746151963</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB46">
+        <v>1.4454635098620141</v>
+      </c>
+      <c r="AC46">
+        <v>1.2718</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="6"/>
+        <v>13.65493865875248</v>
+      </c>
+      <c r="AH46">
+        <f t="shared" si="7"/>
+        <v>13.65493865875248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1.2533255087647381</v>
       </c>
@@ -12812,8 +15825,22 @@
         <f t="shared" si="5"/>
         <v>0.78134670928733874</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB47">
+        <v>1.426435094929098</v>
+      </c>
+      <c r="AC47">
+        <v>1.2637</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="6"/>
+        <v>12.877668349220384</v>
+      </c>
+      <c r="AH47">
+        <f t="shared" si="7"/>
+        <v>12.877668349220384</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1.2453982420663821</v>
       </c>
@@ -12856,8 +15883,22 @@
         <f t="shared" si="5"/>
         <v>0.85270741971576924</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB48">
+        <v>1.4404132567997348</v>
+      </c>
+      <c r="AC48">
+        <v>1.2503</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" si="6"/>
+        <v>15.205411245279915</v>
+      </c>
+      <c r="AH48">
+        <f t="shared" si="7"/>
+        <v>15.205411245279915</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1.2378314810457993</v>
       </c>
@@ -12900,8 +15941,22 @@
         <f t="shared" si="5"/>
         <v>0.62789113180784528</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB49">
+        <v>1.4825586771882968</v>
+      </c>
+      <c r="AC49">
+        <v>1.2353000000000001</v>
+      </c>
+      <c r="AE49">
+        <f t="shared" si="6"/>
+        <v>20.01608331484633</v>
+      </c>
+      <c r="AH49">
+        <f t="shared" si="7"/>
+        <v>20.01608331484633</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1.2305989700352777</v>
       </c>
@@ -12944,8 +15999,22 @@
         <f t="shared" si="5"/>
         <v>0.32742045320915969</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB50">
+        <v>1.549164857663772</v>
+      </c>
+      <c r="AC50">
+        <v>1.2165999999999999</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" si="6"/>
+        <v>27.335595731035024</v>
+      </c>
+      <c r="AH50">
+        <f t="shared" si="7"/>
+        <v>27.335595731035024</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1.2814117700369807</v>
       </c>
@@ -12988,8 +16057,22 @@
         <f t="shared" si="5"/>
         <v>5.0328128664009215E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB51">
+        <v>1.6100897815753106</v>
+      </c>
+      <c r="AC51">
+        <v>1.2729999999999999</v>
+      </c>
+      <c r="AE51">
+        <f t="shared" si="6"/>
+        <v>26.479951419898718</v>
+      </c>
+      <c r="AH51">
+        <f t="shared" si="7"/>
+        <v>26.479951419898718</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1.2722569290108972</v>
       </c>
@@ -13032,8 +16115,22 @@
         <f t="shared" si="5"/>
         <v>0.58545397590983705</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB52">
+        <v>1.5101925535227179</v>
+      </c>
+      <c r="AC52">
+        <v>1.2742</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="6"/>
+        <v>18.520840803854799</v>
+      </c>
+      <c r="AH52">
+        <f t="shared" si="7"/>
+        <v>18.520840803854799</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1.2634611795522648</v>
       </c>
@@ -13076,8 +16173,22 @@
         <f t="shared" si="5"/>
         <v>0.82353975525489065</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB53">
+        <v>1.4538098113436977</v>
+      </c>
+      <c r="AC53">
+        <v>1.2719</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" si="6"/>
+        <v>14.302210185053671</v>
+      </c>
+      <c r="AH53">
+        <f t="shared" si="7"/>
+        <v>14.302210185053671</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1.2549971458999176</v>
       </c>
@@ -13120,8 +16231,22 @@
         <f t="shared" si="5"/>
         <v>1.0336070529540027</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB54">
+        <v>1.4347552762637472</v>
+      </c>
+      <c r="AC54">
+        <v>1.2626999999999999</v>
+      </c>
+      <c r="AE54">
+        <f t="shared" si="6"/>
+        <v>13.625982122732818</v>
+      </c>
+      <c r="AH54">
+        <f t="shared" si="7"/>
+        <v>13.625982122732818</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1.2470214520994045</v>
       </c>
@@ -13164,8 +16289,22 @@
         <f t="shared" si="5"/>
         <v>1.086305427713393</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB55">
+        <v>1.4487542196732743</v>
+      </c>
+      <c r="AC55">
+        <v>1.2495000000000001</v>
+      </c>
+      <c r="AE55">
+        <f t="shared" si="6"/>
+        <v>15.94671626036609</v>
+      </c>
+      <c r="AH55">
+        <f t="shared" si="7"/>
+        <v>15.94671626036609</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1.2394087642178633</v>
       </c>
@@ -13208,8 +16347,22 @@
         <f t="shared" si="5"/>
         <v>0.80831416051392746</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB56">
+        <v>1.4909600220938288</v>
+      </c>
+      <c r="AC56">
+        <v>1.2351000000000001</v>
+      </c>
+      <c r="AE56">
+        <f t="shared" si="6"/>
+        <v>20.715733308544142</v>
+      </c>
+      <c r="AH56">
+        <f t="shared" si="7"/>
+        <v>20.715733308544142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1.2321327076458615</v>
       </c>
@@ -13237,6 +16390,20 @@
       <c r="Y57">
         <f t="shared" si="5"/>
         <v>0.59320988396554897</v>
+      </c>
+      <c r="AB57">
+        <v>1.5576608422001295</v>
+      </c>
+      <c r="AC57">
+        <v>1.2153</v>
+      </c>
+      <c r="AE57">
+        <f t="shared" si="6"/>
+        <v>28.170891319026531</v>
+      </c>
+      <c r="AH57">
+        <f t="shared" si="7"/>
+        <v>28.170891319026531</v>
       </c>
     </row>
   </sheetData>
